--- a/Basic design document.xlsx
+++ b/Basic design document.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\7-Programming-exercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DBE19F0-ADE1-49F5-A8FD-E4868AA61A6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1A91457-A677-4C16-ABFB-CA6A16B26325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="774" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="774" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="26" r:id="rId1"/>
@@ -1799,18 +1799,6 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1872,6 +1860,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4737,7 +4737,7 @@
               <a:latin typeface="ＭＳ Ｐゴシック"/>
               <a:ea typeface="ＭＳ Ｐゴシック"/>
             </a:rPr>
-            <a:t>アカウント一覧</a:t>
+            <a:t>アカウント一覧画面</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
@@ -9984,6 +9984,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="G40:Z41"/>
+    <mergeCell ref="H34:J35"/>
+    <mergeCell ref="K24:M24"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:AC3"/>
     <mergeCell ref="AD3:AE3"/>
     <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="G6:Z7"/>
@@ -9992,11 +9997,6 @@
     <mergeCell ref="G2:AC2"/>
     <mergeCell ref="AD2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="G40:Z41"/>
-    <mergeCell ref="H34:J35"/>
-    <mergeCell ref="K24:M24"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:AC3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <hyperlinks>
@@ -11991,6 +11991,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="I50:K51"/>
+    <mergeCell ref="H52:AA53"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="H5:AA6"/>
+    <mergeCell ref="I48:M49"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="G3:AC3"/>
     <mergeCell ref="AD3:AE3"/>
@@ -12000,11 +12005,6 @@
     <mergeCell ref="G2:AC2"/>
     <mergeCell ref="AD2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="I50:K51"/>
-    <mergeCell ref="H52:AA53"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="H5:AA6"/>
-    <mergeCell ref="I48:M49"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -13665,6 +13665,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="H39:Z40"/>
+    <mergeCell ref="N18:S19"/>
+    <mergeCell ref="O16:R17"/>
+    <mergeCell ref="M11:U12"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:AC3"/>
     <mergeCell ref="AD3:AE3"/>
     <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="H6:Z7"/>
@@ -13673,12 +13679,6 @@
     <mergeCell ref="G2:AC2"/>
     <mergeCell ref="AD2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="H39:Z40"/>
-    <mergeCell ref="N18:S19"/>
-    <mergeCell ref="O16:R17"/>
-    <mergeCell ref="M11:U12"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:AC3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -14048,8 +14048,8 @@
     <row r="6" spans="1:177" ht="12.75" customHeight="1">
       <c r="A6" s="35"/>
       <c r="B6" s="35"/>
-      <c r="C6" s="131"/>
-      <c r="D6" s="132"/>
+      <c r="C6" s="127"/>
+      <c r="D6" s="128"/>
       <c r="E6" s="104"/>
       <c r="F6" s="104"/>
       <c r="G6" s="104"/>
@@ -14076,7 +14076,7 @@
       <c r="AB6" s="104"/>
       <c r="AC6" s="104"/>
       <c r="AD6" s="104"/>
-      <c r="AE6" s="133"/>
+      <c r="AE6" s="129"/>
       <c r="AF6" s="35"/>
       <c r="AG6" s="35"/>
     </row>
@@ -14188,11 +14188,11 @@
       <c r="A10" s="35"/>
       <c r="B10" s="35"/>
       <c r="C10" s="37"/>
-      <c r="D10" s="140" t="s">
+      <c r="D10" s="136" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="141"/>
-      <c r="F10" s="142"/>
+      <c r="E10" s="137"/>
+      <c r="F10" s="138"/>
       <c r="G10" s="67"/>
       <c r="H10" s="68"/>
       <c r="I10" s="68"/>
@@ -14202,11 +14202,11 @@
       <c r="M10" s="68"/>
       <c r="N10" s="68"/>
       <c r="O10" s="69"/>
-      <c r="P10" s="140" t="s">
+      <c r="P10" s="136" t="s">
         <v>69</v>
       </c>
-      <c r="Q10" s="141"/>
-      <c r="R10" s="142"/>
+      <c r="Q10" s="137"/>
+      <c r="R10" s="138"/>
       <c r="S10" s="67"/>
       <c r="T10" s="68"/>
       <c r="U10" s="68"/>
@@ -14226,11 +14226,11 @@
       <c r="A11" s="35"/>
       <c r="B11" s="35"/>
       <c r="C11" s="37"/>
-      <c r="D11" s="140" t="s">
+      <c r="D11" s="136" t="s">
         <v>67</v>
       </c>
-      <c r="E11" s="141"/>
-      <c r="F11" s="142"/>
+      <c r="E11" s="137"/>
+      <c r="F11" s="138"/>
       <c r="G11" s="67"/>
       <c r="H11" s="68"/>
       <c r="I11" s="68"/>
@@ -14240,11 +14240,11 @@
       <c r="M11" s="68"/>
       <c r="N11" s="68"/>
       <c r="O11" s="69"/>
-      <c r="P11" s="140" t="s">
+      <c r="P11" s="136" t="s">
         <v>70</v>
       </c>
-      <c r="Q11" s="141"/>
-      <c r="R11" s="142"/>
+      <c r="Q11" s="137"/>
+      <c r="R11" s="138"/>
       <c r="S11" s="67"/>
       <c r="T11" s="68"/>
       <c r="U11" s="68"/>
@@ -14264,11 +14264,11 @@
       <c r="A12" s="35"/>
       <c r="B12" s="35"/>
       <c r="C12" s="37"/>
-      <c r="D12" s="140" t="s">
+      <c r="D12" s="136" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="141"/>
-      <c r="F12" s="142"/>
+      <c r="E12" s="137"/>
+      <c r="F12" s="138"/>
       <c r="G12" s="67"/>
       <c r="H12" s="68"/>
       <c r="I12" s="68"/>
@@ -14278,22 +14278,22 @@
       <c r="M12" s="68"/>
       <c r="N12" s="68"/>
       <c r="O12" s="69"/>
-      <c r="P12" s="140" t="s">
+      <c r="P12" s="136" t="s">
         <v>71</v>
       </c>
-      <c r="Q12" s="141"/>
-      <c r="R12" s="142"/>
-      <c r="S12" s="143" t="s">
+      <c r="Q12" s="137"/>
+      <c r="R12" s="138"/>
+      <c r="S12" s="139" t="s">
         <v>145</v>
       </c>
-      <c r="T12" s="144"/>
-      <c r="U12" s="144"/>
-      <c r="V12" s="144"/>
-      <c r="W12" s="144"/>
-      <c r="X12" s="144"/>
-      <c r="Y12" s="144"/>
-      <c r="Z12" s="144"/>
-      <c r="AA12" s="145"/>
+      <c r="T12" s="140"/>
+      <c r="U12" s="140"/>
+      <c r="V12" s="140"/>
+      <c r="W12" s="140"/>
+      <c r="X12" s="140"/>
+      <c r="Y12" s="140"/>
+      <c r="Z12" s="140"/>
+      <c r="AA12" s="141"/>
       <c r="AB12" s="60"/>
       <c r="AD12" s="35"/>
       <c r="AE12" s="39"/>
@@ -14304,11 +14304,11 @@
       <c r="A13" s="35"/>
       <c r="B13" s="35"/>
       <c r="C13" s="37"/>
-      <c r="D13" s="140" t="s">
+      <c r="D13" s="136" t="s">
         <v>68</v>
       </c>
-      <c r="E13" s="141"/>
-      <c r="F13" s="142"/>
+      <c r="E13" s="137"/>
+      <c r="F13" s="138"/>
       <c r="G13" s="67"/>
       <c r="H13" s="68"/>
       <c r="I13" s="68"/>
@@ -14342,11 +14342,11 @@
       <c r="A14" s="35"/>
       <c r="B14" s="35"/>
       <c r="C14" s="37"/>
-      <c r="D14" s="143" t="s">
+      <c r="D14" s="139" t="s">
         <v>72</v>
       </c>
-      <c r="E14" s="144"/>
-      <c r="F14" s="145"/>
+      <c r="E14" s="140"/>
+      <c r="F14" s="141"/>
       <c r="G14" s="56"/>
       <c r="H14" s="56"/>
       <c r="I14" s="56"/>
@@ -14415,54 +14415,54 @@
       <c r="D16" s="72" t="s">
         <v>73</v>
       </c>
-      <c r="E16" s="146" t="s">
+      <c r="E16" s="142" t="s">
         <v>74</v>
       </c>
-      <c r="F16" s="147"/>
-      <c r="G16" s="146" t="s">
+      <c r="F16" s="143"/>
+      <c r="G16" s="142" t="s">
         <v>32</v>
       </c>
-      <c r="H16" s="147"/>
-      <c r="I16" s="146" t="s">
+      <c r="H16" s="143"/>
+      <c r="I16" s="142" t="s">
         <v>33</v>
       </c>
-      <c r="J16" s="147"/>
-      <c r="K16" s="146" t="s">
+      <c r="J16" s="143"/>
+      <c r="K16" s="142" t="s">
         <v>34</v>
       </c>
-      <c r="L16" s="147"/>
-      <c r="M16" s="146" t="s">
+      <c r="L16" s="143"/>
+      <c r="M16" s="142" t="s">
         <v>35</v>
       </c>
-      <c r="N16" s="148"/>
-      <c r="O16" s="148"/>
-      <c r="P16" s="146" t="s">
+      <c r="N16" s="144"/>
+      <c r="O16" s="144"/>
+      <c r="P16" s="142" t="s">
         <v>37</v>
       </c>
-      <c r="Q16" s="147"/>
-      <c r="R16" s="140" t="s">
+      <c r="Q16" s="143"/>
+      <c r="R16" s="136" t="s">
         <v>68</v>
       </c>
-      <c r="S16" s="141"/>
-      <c r="T16" s="142"/>
-      <c r="U16" s="140" t="s">
+      <c r="S16" s="137"/>
+      <c r="T16" s="138"/>
+      <c r="U16" s="136" t="s">
         <v>75</v>
       </c>
-      <c r="V16" s="142"/>
-      <c r="W16" s="140" t="s">
+      <c r="V16" s="138"/>
+      <c r="W16" s="136" t="s">
         <v>76</v>
       </c>
-      <c r="X16" s="142"/>
-      <c r="Y16" s="143" t="s">
+      <c r="X16" s="138"/>
+      <c r="Y16" s="139" t="s">
         <v>77</v>
       </c>
-      <c r="Z16" s="145"/>
-      <c r="AA16" s="149" t="s">
+      <c r="Z16" s="141"/>
+      <c r="AA16" s="145" t="s">
         <v>78</v>
       </c>
-      <c r="AB16" s="150"/>
-      <c r="AC16" s="150"/>
-      <c r="AD16" s="151"/>
+      <c r="AB16" s="146"/>
+      <c r="AC16" s="146"/>
+      <c r="AD16" s="147"/>
       <c r="AE16" s="39"/>
       <c r="AF16" s="35"/>
       <c r="AG16" s="35"/>
@@ -14474,27 +14474,27 @@
       <c r="D17" s="73">
         <v>20</v>
       </c>
-      <c r="E17" s="129" t="s">
+      <c r="E17" s="148" t="s">
         <v>101</v>
       </c>
-      <c r="F17" s="129"/>
-      <c r="G17" s="129" t="s">
+      <c r="F17" s="148"/>
+      <c r="G17" s="148" t="s">
         <v>101</v>
       </c>
-      <c r="H17" s="129"/>
-      <c r="I17" s="129" t="s">
+      <c r="H17" s="148"/>
+      <c r="I17" s="148" t="s">
         <v>123</v>
       </c>
-      <c r="J17" s="129"/>
-      <c r="K17" s="129" t="s">
+      <c r="J17" s="148"/>
+      <c r="K17" s="148" t="s">
         <v>123</v>
       </c>
-      <c r="L17" s="129"/>
-      <c r="M17" s="128" t="s">
+      <c r="L17" s="148"/>
+      <c r="M17" s="150" t="s">
         <v>81</v>
       </c>
-      <c r="N17" s="128"/>
-      <c r="O17" s="128"/>
+      <c r="N17" s="150"/>
+      <c r="O17" s="150"/>
       <c r="P17" s="99" t="s">
         <v>64</v>
       </c>
@@ -14508,11 +14508,11 @@
         <v>143</v>
       </c>
       <c r="V17" s="99"/>
-      <c r="W17" s="127">
+      <c r="W17" s="151">
         <v>44197</v>
       </c>
       <c r="X17" s="99"/>
-      <c r="Y17" s="127">
+      <c r="Y17" s="151">
         <v>44197</v>
       </c>
       <c r="Z17" s="99"/>
@@ -14535,27 +14535,27 @@
       <c r="D18" s="73">
         <v>19</v>
       </c>
-      <c r="E18" s="129" t="s">
+      <c r="E18" s="148" t="s">
         <v>102</v>
       </c>
-      <c r="F18" s="129"/>
-      <c r="G18" s="129" t="s">
+      <c r="F18" s="148"/>
+      <c r="G18" s="148" t="s">
         <v>102</v>
       </c>
-      <c r="H18" s="129"/>
-      <c r="I18" s="129" t="s">
+      <c r="H18" s="148"/>
+      <c r="I18" s="148" t="s">
         <v>124</v>
       </c>
-      <c r="J18" s="129"/>
-      <c r="K18" s="129" t="s">
+      <c r="J18" s="148"/>
+      <c r="K18" s="148" t="s">
         <v>124</v>
       </c>
-      <c r="L18" s="129"/>
-      <c r="M18" s="128" t="s">
+      <c r="L18" s="148"/>
+      <c r="M18" s="150" t="s">
         <v>82</v>
       </c>
-      <c r="N18" s="128"/>
-      <c r="O18" s="128"/>
+      <c r="N18" s="150"/>
+      <c r="O18" s="150"/>
       <c r="P18" s="99" t="s">
         <v>64</v>
       </c>
@@ -14569,11 +14569,11 @@
         <v>143</v>
       </c>
       <c r="V18" s="99"/>
-      <c r="W18" s="127">
+      <c r="W18" s="151">
         <v>44198</v>
       </c>
       <c r="X18" s="99"/>
-      <c r="Y18" s="127">
+      <c r="Y18" s="151">
         <v>44198</v>
       </c>
       <c r="Z18" s="99"/>
@@ -14596,27 +14596,27 @@
       <c r="D19" s="73">
         <v>18</v>
       </c>
-      <c r="E19" s="129" t="s">
+      <c r="E19" s="148" t="s">
         <v>103</v>
       </c>
-      <c r="F19" s="129"/>
-      <c r="G19" s="129" t="s">
+      <c r="F19" s="148"/>
+      <c r="G19" s="148" t="s">
         <v>103</v>
       </c>
-      <c r="H19" s="129"/>
-      <c r="I19" s="129" t="s">
+      <c r="H19" s="148"/>
+      <c r="I19" s="148" t="s">
         <v>125</v>
       </c>
-      <c r="J19" s="129"/>
-      <c r="K19" s="129" t="s">
+      <c r="J19" s="148"/>
+      <c r="K19" s="148" t="s">
         <v>125</v>
       </c>
-      <c r="L19" s="129"/>
-      <c r="M19" s="128" t="s">
+      <c r="L19" s="148"/>
+      <c r="M19" s="150" t="s">
         <v>83</v>
       </c>
-      <c r="N19" s="128"/>
-      <c r="O19" s="128"/>
+      <c r="N19" s="150"/>
+      <c r="O19" s="150"/>
       <c r="P19" s="99" t="s">
         <v>64</v>
       </c>
@@ -14630,11 +14630,11 @@
         <v>144</v>
       </c>
       <c r="V19" s="99"/>
-      <c r="W19" s="127">
+      <c r="W19" s="151">
         <v>44199</v>
       </c>
       <c r="X19" s="99"/>
-      <c r="Y19" s="127">
+      <c r="Y19" s="151">
         <v>44199</v>
       </c>
       <c r="Z19" s="99"/>
@@ -14657,27 +14657,27 @@
       <c r="D20" s="73">
         <v>17</v>
       </c>
-      <c r="E20" s="129" t="s">
+      <c r="E20" s="148" t="s">
         <v>104</v>
       </c>
-      <c r="F20" s="129"/>
-      <c r="G20" s="129" t="s">
+      <c r="F20" s="148"/>
+      <c r="G20" s="148" t="s">
         <v>104</v>
       </c>
-      <c r="H20" s="129"/>
-      <c r="I20" s="129" t="s">
+      <c r="H20" s="148"/>
+      <c r="I20" s="148" t="s">
         <v>126</v>
       </c>
-      <c r="J20" s="129"/>
-      <c r="K20" s="129" t="s">
+      <c r="J20" s="148"/>
+      <c r="K20" s="148" t="s">
         <v>126</v>
       </c>
-      <c r="L20" s="129"/>
-      <c r="M20" s="128" t="s">
+      <c r="L20" s="148"/>
+      <c r="M20" s="150" t="s">
         <v>84</v>
       </c>
-      <c r="N20" s="128"/>
-      <c r="O20" s="128"/>
+      <c r="N20" s="150"/>
+      <c r="O20" s="150"/>
       <c r="P20" s="99" t="s">
         <v>64</v>
       </c>
@@ -14691,11 +14691,11 @@
         <v>144</v>
       </c>
       <c r="V20" s="99"/>
-      <c r="W20" s="127">
+      <c r="W20" s="151">
         <v>44200</v>
       </c>
       <c r="X20" s="99"/>
-      <c r="Y20" s="127">
+      <c r="Y20" s="151">
         <v>44200</v>
       </c>
       <c r="Z20" s="99"/>
@@ -14718,27 +14718,27 @@
       <c r="D21" s="73">
         <v>16</v>
       </c>
-      <c r="E21" s="129" t="s">
+      <c r="E21" s="148" t="s">
         <v>105</v>
       </c>
-      <c r="F21" s="129"/>
-      <c r="G21" s="129" t="s">
+      <c r="F21" s="148"/>
+      <c r="G21" s="148" t="s">
         <v>105</v>
       </c>
-      <c r="H21" s="129"/>
-      <c r="I21" s="129" t="s">
+      <c r="H21" s="148"/>
+      <c r="I21" s="148" t="s">
         <v>127</v>
       </c>
-      <c r="J21" s="129"/>
-      <c r="K21" s="129" t="s">
+      <c r="J21" s="148"/>
+      <c r="K21" s="148" t="s">
         <v>127</v>
       </c>
-      <c r="L21" s="129"/>
-      <c r="M21" s="128" t="s">
+      <c r="L21" s="148"/>
+      <c r="M21" s="150" t="s">
         <v>85</v>
       </c>
-      <c r="N21" s="128"/>
-      <c r="O21" s="128"/>
+      <c r="N21" s="150"/>
+      <c r="O21" s="150"/>
       <c r="P21" s="99" t="s">
         <v>64</v>
       </c>
@@ -14752,11 +14752,11 @@
         <v>144</v>
       </c>
       <c r="V21" s="99"/>
-      <c r="W21" s="127">
+      <c r="W21" s="151">
         <v>44201</v>
       </c>
       <c r="X21" s="99"/>
-      <c r="Y21" s="127">
+      <c r="Y21" s="151">
         <v>44201</v>
       </c>
       <c r="Z21" s="99"/>
@@ -14779,27 +14779,27 @@
       <c r="D22" s="73">
         <v>15</v>
       </c>
-      <c r="E22" s="129" t="s">
+      <c r="E22" s="148" t="s">
         <v>108</v>
       </c>
-      <c r="F22" s="129"/>
-      <c r="G22" s="129" t="s">
+      <c r="F22" s="148"/>
+      <c r="G22" s="148" t="s">
         <v>108</v>
       </c>
-      <c r="H22" s="129"/>
-      <c r="I22" s="129" t="s">
+      <c r="H22" s="148"/>
+      <c r="I22" s="148" t="s">
         <v>128</v>
       </c>
-      <c r="J22" s="129"/>
-      <c r="K22" s="129" t="s">
+      <c r="J22" s="148"/>
+      <c r="K22" s="148" t="s">
         <v>128</v>
       </c>
-      <c r="L22" s="129"/>
-      <c r="M22" s="128" t="s">
+      <c r="L22" s="148"/>
+      <c r="M22" s="150" t="s">
         <v>86</v>
       </c>
-      <c r="N22" s="128"/>
-      <c r="O22" s="128"/>
+      <c r="N22" s="150"/>
+      <c r="O22" s="150"/>
       <c r="P22" s="99" t="s">
         <v>64</v>
       </c>
@@ -14813,11 +14813,11 @@
         <v>143</v>
       </c>
       <c r="V22" s="99"/>
-      <c r="W22" s="127">
+      <c r="W22" s="151">
         <v>44202</v>
       </c>
       <c r="X22" s="99"/>
-      <c r="Y22" s="127">
+      <c r="Y22" s="151">
         <v>44202</v>
       </c>
       <c r="Z22" s="99"/>
@@ -14840,27 +14840,27 @@
       <c r="D23" s="73">
         <v>14</v>
       </c>
-      <c r="E23" s="129" t="s">
+      <c r="E23" s="148" t="s">
         <v>109</v>
       </c>
-      <c r="F23" s="129"/>
-      <c r="G23" s="129" t="s">
+      <c r="F23" s="148"/>
+      <c r="G23" s="148" t="s">
         <v>109</v>
       </c>
-      <c r="H23" s="129"/>
-      <c r="I23" s="129" t="s">
+      <c r="H23" s="148"/>
+      <c r="I23" s="148" t="s">
         <v>129</v>
       </c>
-      <c r="J23" s="129"/>
-      <c r="K23" s="129" t="s">
+      <c r="J23" s="148"/>
+      <c r="K23" s="148" t="s">
         <v>129</v>
       </c>
-      <c r="L23" s="129"/>
-      <c r="M23" s="128" t="s">
+      <c r="L23" s="148"/>
+      <c r="M23" s="150" t="s">
         <v>87</v>
       </c>
-      <c r="N23" s="128"/>
-      <c r="O23" s="128"/>
+      <c r="N23" s="150"/>
+      <c r="O23" s="150"/>
       <c r="P23" s="99" t="s">
         <v>64</v>
       </c>
@@ -14874,11 +14874,11 @@
         <v>143</v>
       </c>
       <c r="V23" s="99"/>
-      <c r="W23" s="127">
+      <c r="W23" s="151">
         <v>44203</v>
       </c>
       <c r="X23" s="99"/>
-      <c r="Y23" s="127">
+      <c r="Y23" s="151">
         <v>44203</v>
       </c>
       <c r="Z23" s="99"/>
@@ -14901,27 +14901,27 @@
       <c r="D24" s="73">
         <v>13</v>
       </c>
-      <c r="E24" s="129" t="s">
+      <c r="E24" s="148" t="s">
         <v>110</v>
       </c>
-      <c r="F24" s="129"/>
-      <c r="G24" s="129" t="s">
+      <c r="F24" s="148"/>
+      <c r="G24" s="148" t="s">
         <v>110</v>
       </c>
-      <c r="H24" s="129"/>
-      <c r="I24" s="129" t="s">
+      <c r="H24" s="148"/>
+      <c r="I24" s="148" t="s">
         <v>130</v>
       </c>
-      <c r="J24" s="129"/>
-      <c r="K24" s="129" t="s">
+      <c r="J24" s="148"/>
+      <c r="K24" s="148" t="s">
         <v>130</v>
       </c>
-      <c r="L24" s="129"/>
-      <c r="M24" s="128" t="s">
+      <c r="L24" s="148"/>
+      <c r="M24" s="150" t="s">
         <v>88</v>
       </c>
-      <c r="N24" s="128"/>
-      <c r="O24" s="128"/>
+      <c r="N24" s="150"/>
+      <c r="O24" s="150"/>
       <c r="P24" s="99" t="s">
         <v>64</v>
       </c>
@@ -14935,11 +14935,11 @@
         <v>144</v>
       </c>
       <c r="V24" s="99"/>
-      <c r="W24" s="127">
+      <c r="W24" s="151">
         <v>44204</v>
       </c>
       <c r="X24" s="99"/>
-      <c r="Y24" s="127">
+      <c r="Y24" s="151">
         <v>44204</v>
       </c>
       <c r="Z24" s="99"/>
@@ -14962,27 +14962,27 @@
       <c r="D25" s="73">
         <v>12</v>
       </c>
-      <c r="E25" s="129" t="s">
+      <c r="E25" s="148" t="s">
         <v>111</v>
       </c>
-      <c r="F25" s="129"/>
-      <c r="G25" s="129" t="s">
+      <c r="F25" s="148"/>
+      <c r="G25" s="148" t="s">
         <v>111</v>
       </c>
-      <c r="H25" s="129"/>
-      <c r="I25" s="129" t="s">
+      <c r="H25" s="148"/>
+      <c r="I25" s="148" t="s">
         <v>131</v>
       </c>
-      <c r="J25" s="129"/>
-      <c r="K25" s="129" t="s">
+      <c r="J25" s="148"/>
+      <c r="K25" s="148" t="s">
         <v>131</v>
       </c>
-      <c r="L25" s="129"/>
-      <c r="M25" s="128" t="s">
+      <c r="L25" s="148"/>
+      <c r="M25" s="150" t="s">
         <v>89</v>
       </c>
-      <c r="N25" s="128"/>
-      <c r="O25" s="128"/>
+      <c r="N25" s="150"/>
+      <c r="O25" s="150"/>
       <c r="P25" s="99" t="s">
         <v>64</v>
       </c>
@@ -14996,11 +14996,11 @@
         <v>144</v>
       </c>
       <c r="V25" s="99"/>
-      <c r="W25" s="127">
+      <c r="W25" s="151">
         <v>44205</v>
       </c>
       <c r="X25" s="99"/>
-      <c r="Y25" s="127">
+      <c r="Y25" s="151">
         <v>44205</v>
       </c>
       <c r="Z25" s="99"/>
@@ -15023,27 +15023,27 @@
       <c r="D26" s="73">
         <v>11</v>
       </c>
-      <c r="E26" s="129" t="s">
+      <c r="E26" s="148" t="s">
         <v>112</v>
       </c>
-      <c r="F26" s="129"/>
-      <c r="G26" s="129" t="s">
+      <c r="F26" s="148"/>
+      <c r="G26" s="148" t="s">
         <v>112</v>
       </c>
-      <c r="H26" s="129"/>
-      <c r="I26" s="129" t="s">
+      <c r="H26" s="148"/>
+      <c r="I26" s="148" t="s">
         <v>132</v>
       </c>
-      <c r="J26" s="129"/>
-      <c r="K26" s="129" t="s">
+      <c r="J26" s="148"/>
+      <c r="K26" s="148" t="s">
         <v>132</v>
       </c>
-      <c r="L26" s="129"/>
-      <c r="M26" s="128" t="s">
+      <c r="L26" s="148"/>
+      <c r="M26" s="150" t="s">
         <v>90</v>
       </c>
-      <c r="N26" s="128"/>
-      <c r="O26" s="128"/>
+      <c r="N26" s="150"/>
+      <c r="O26" s="150"/>
       <c r="P26" s="99" t="s">
         <v>64</v>
       </c>
@@ -15057,11 +15057,11 @@
         <v>144</v>
       </c>
       <c r="V26" s="99"/>
-      <c r="W26" s="127">
+      <c r="W26" s="151">
         <v>44206</v>
       </c>
       <c r="X26" s="99"/>
-      <c r="Y26" s="127">
+      <c r="Y26" s="151">
         <v>44206</v>
       </c>
       <c r="Z26" s="99"/>
@@ -15084,27 +15084,27 @@
       <c r="D27" s="73">
         <v>10</v>
       </c>
-      <c r="E27" s="129" t="s">
+      <c r="E27" s="148" t="s">
         <v>113</v>
       </c>
-      <c r="F27" s="129"/>
-      <c r="G27" s="129" t="s">
+      <c r="F27" s="148"/>
+      <c r="G27" s="148" t="s">
         <v>113</v>
       </c>
-      <c r="H27" s="129"/>
-      <c r="I27" s="129" t="s">
+      <c r="H27" s="148"/>
+      <c r="I27" s="148" t="s">
         <v>133</v>
       </c>
-      <c r="J27" s="129"/>
-      <c r="K27" s="129" t="s">
+      <c r="J27" s="148"/>
+      <c r="K27" s="148" t="s">
         <v>133</v>
       </c>
-      <c r="L27" s="129"/>
-      <c r="M27" s="128" t="s">
+      <c r="L27" s="148"/>
+      <c r="M27" s="150" t="s">
         <v>91</v>
       </c>
-      <c r="N27" s="128"/>
-      <c r="O27" s="128"/>
+      <c r="N27" s="150"/>
+      <c r="O27" s="150"/>
       <c r="P27" s="99" t="s">
         <v>79</v>
       </c>
@@ -15118,11 +15118,11 @@
         <v>143</v>
       </c>
       <c r="V27" s="99"/>
-      <c r="W27" s="127">
+      <c r="W27" s="151">
         <v>44207</v>
       </c>
       <c r="X27" s="99"/>
-      <c r="Y27" s="127">
+      <c r="Y27" s="151">
         <v>44207</v>
       </c>
       <c r="Z27" s="99"/>
@@ -15145,27 +15145,27 @@
       <c r="D28" s="73">
         <v>9</v>
       </c>
-      <c r="E28" s="129" t="s">
+      <c r="E28" s="148" t="s">
         <v>114</v>
       </c>
-      <c r="F28" s="129"/>
-      <c r="G28" s="129" t="s">
+      <c r="F28" s="148"/>
+      <c r="G28" s="148" t="s">
         <v>114</v>
       </c>
-      <c r="H28" s="129"/>
-      <c r="I28" s="129" t="s">
+      <c r="H28" s="148"/>
+      <c r="I28" s="148" t="s">
         <v>134</v>
       </c>
-      <c r="J28" s="129"/>
-      <c r="K28" s="129" t="s">
+      <c r="J28" s="148"/>
+      <c r="K28" s="148" t="s">
         <v>134</v>
       </c>
-      <c r="L28" s="129"/>
-      <c r="M28" s="128" t="s">
+      <c r="L28" s="148"/>
+      <c r="M28" s="150" t="s">
         <v>92</v>
       </c>
-      <c r="N28" s="128"/>
-      <c r="O28" s="128"/>
+      <c r="N28" s="150"/>
+      <c r="O28" s="150"/>
       <c r="P28" s="99" t="s">
         <v>79</v>
       </c>
@@ -15179,11 +15179,11 @@
         <v>143</v>
       </c>
       <c r="V28" s="99"/>
-      <c r="W28" s="127">
+      <c r="W28" s="151">
         <v>44208</v>
       </c>
       <c r="X28" s="99"/>
-      <c r="Y28" s="127">
+      <c r="Y28" s="151">
         <v>44208</v>
       </c>
       <c r="Z28" s="99"/>
@@ -15206,27 +15206,27 @@
       <c r="D29" s="73">
         <v>8</v>
       </c>
-      <c r="E29" s="129" t="s">
+      <c r="E29" s="148" t="s">
         <v>115</v>
       </c>
-      <c r="F29" s="129"/>
-      <c r="G29" s="129" t="s">
+      <c r="F29" s="148"/>
+      <c r="G29" s="148" t="s">
         <v>115</v>
       </c>
-      <c r="H29" s="129"/>
-      <c r="I29" s="129" t="s">
+      <c r="H29" s="148"/>
+      <c r="I29" s="148" t="s">
         <v>135</v>
       </c>
-      <c r="J29" s="129"/>
-      <c r="K29" s="129" t="s">
+      <c r="J29" s="148"/>
+      <c r="K29" s="148" t="s">
         <v>135</v>
       </c>
-      <c r="L29" s="129"/>
-      <c r="M29" s="128" t="s">
+      <c r="L29" s="148"/>
+      <c r="M29" s="150" t="s">
         <v>93</v>
       </c>
-      <c r="N29" s="128"/>
-      <c r="O29" s="128"/>
+      <c r="N29" s="150"/>
+      <c r="O29" s="150"/>
       <c r="P29" s="99" t="s">
         <v>79</v>
       </c>
@@ -15240,11 +15240,11 @@
         <v>144</v>
       </c>
       <c r="V29" s="99"/>
-      <c r="W29" s="127">
+      <c r="W29" s="151">
         <v>44209</v>
       </c>
       <c r="X29" s="99"/>
-      <c r="Y29" s="127">
+      <c r="Y29" s="151">
         <v>44209</v>
       </c>
       <c r="Z29" s="99"/>
@@ -15267,27 +15267,27 @@
       <c r="D30" s="73">
         <v>7</v>
       </c>
-      <c r="E30" s="129" t="s">
+      <c r="E30" s="148" t="s">
         <v>116</v>
       </c>
-      <c r="F30" s="129"/>
-      <c r="G30" s="129" t="s">
+      <c r="F30" s="148"/>
+      <c r="G30" s="148" t="s">
         <v>116</v>
       </c>
-      <c r="H30" s="129"/>
-      <c r="I30" s="129" t="s">
+      <c r="H30" s="148"/>
+      <c r="I30" s="148" t="s">
         <v>136</v>
       </c>
-      <c r="J30" s="129"/>
-      <c r="K30" s="129" t="s">
+      <c r="J30" s="148"/>
+      <c r="K30" s="148" t="s">
         <v>136</v>
       </c>
-      <c r="L30" s="129"/>
-      <c r="M30" s="128" t="s">
+      <c r="L30" s="148"/>
+      <c r="M30" s="150" t="s">
         <v>94</v>
       </c>
-      <c r="N30" s="128"/>
-      <c r="O30" s="128"/>
+      <c r="N30" s="150"/>
+      <c r="O30" s="150"/>
       <c r="P30" s="99" t="s">
         <v>79</v>
       </c>
@@ -15301,11 +15301,11 @@
         <v>144</v>
       </c>
       <c r="V30" s="99"/>
-      <c r="W30" s="127">
+      <c r="W30" s="151">
         <v>44210</v>
       </c>
       <c r="X30" s="99"/>
-      <c r="Y30" s="127">
+      <c r="Y30" s="151">
         <v>44210</v>
       </c>
       <c r="Z30" s="99"/>
@@ -15328,27 +15328,27 @@
       <c r="D31" s="73">
         <v>6</v>
       </c>
-      <c r="E31" s="129" t="s">
+      <c r="E31" s="148" t="s">
         <v>117</v>
       </c>
-      <c r="F31" s="129"/>
-      <c r="G31" s="129" t="s">
+      <c r="F31" s="148"/>
+      <c r="G31" s="148" t="s">
         <v>117</v>
       </c>
-      <c r="H31" s="129"/>
-      <c r="I31" s="129" t="s">
+      <c r="H31" s="148"/>
+      <c r="I31" s="148" t="s">
         <v>137</v>
       </c>
-      <c r="J31" s="129"/>
-      <c r="K31" s="129" t="s">
+      <c r="J31" s="148"/>
+      <c r="K31" s="148" t="s">
         <v>137</v>
       </c>
-      <c r="L31" s="129"/>
-      <c r="M31" s="128" t="s">
+      <c r="L31" s="148"/>
+      <c r="M31" s="150" t="s">
         <v>95</v>
       </c>
-      <c r="N31" s="128"/>
-      <c r="O31" s="128"/>
+      <c r="N31" s="150"/>
+      <c r="O31" s="150"/>
       <c r="P31" s="99" t="s">
         <v>79</v>
       </c>
@@ -15362,11 +15362,11 @@
         <v>144</v>
       </c>
       <c r="V31" s="99"/>
-      <c r="W31" s="127">
+      <c r="W31" s="151">
         <v>44211</v>
       </c>
       <c r="X31" s="99"/>
-      <c r="Y31" s="127">
+      <c r="Y31" s="151">
         <v>44211</v>
       </c>
       <c r="Z31" s="99"/>
@@ -15389,27 +15389,27 @@
       <c r="D32" s="73">
         <v>5</v>
       </c>
-      <c r="E32" s="129" t="s">
+      <c r="E32" s="148" t="s">
         <v>118</v>
       </c>
-      <c r="F32" s="129"/>
-      <c r="G32" s="129" t="s">
+      <c r="F32" s="148"/>
+      <c r="G32" s="148" t="s">
         <v>118</v>
       </c>
-      <c r="H32" s="129"/>
-      <c r="I32" s="129" t="s">
+      <c r="H32" s="148"/>
+      <c r="I32" s="148" t="s">
         <v>138</v>
       </c>
-      <c r="J32" s="129"/>
-      <c r="K32" s="129" t="s">
+      <c r="J32" s="148"/>
+      <c r="K32" s="148" t="s">
         <v>138</v>
       </c>
-      <c r="L32" s="129"/>
-      <c r="M32" s="128" t="s">
+      <c r="L32" s="148"/>
+      <c r="M32" s="150" t="s">
         <v>96</v>
       </c>
-      <c r="N32" s="128"/>
-      <c r="O32" s="128"/>
+      <c r="N32" s="150"/>
+      <c r="O32" s="150"/>
       <c r="P32" s="99" t="s">
         <v>79</v>
       </c>
@@ -15423,11 +15423,11 @@
         <v>143</v>
       </c>
       <c r="V32" s="99"/>
-      <c r="W32" s="127">
+      <c r="W32" s="151">
         <v>44212</v>
       </c>
       <c r="X32" s="99"/>
-      <c r="Y32" s="127">
+      <c r="Y32" s="151">
         <v>44212</v>
       </c>
       <c r="Z32" s="99"/>
@@ -15450,27 +15450,27 @@
       <c r="D33" s="73">
         <v>4</v>
       </c>
-      <c r="E33" s="129" t="s">
+      <c r="E33" s="148" t="s">
         <v>119</v>
       </c>
-      <c r="F33" s="129"/>
-      <c r="G33" s="129" t="s">
+      <c r="F33" s="148"/>
+      <c r="G33" s="148" t="s">
         <v>119</v>
       </c>
-      <c r="H33" s="129"/>
-      <c r="I33" s="129" t="s">
+      <c r="H33" s="148"/>
+      <c r="I33" s="148" t="s">
         <v>139</v>
       </c>
-      <c r="J33" s="129"/>
-      <c r="K33" s="129" t="s">
+      <c r="J33" s="148"/>
+      <c r="K33" s="148" t="s">
         <v>139</v>
       </c>
-      <c r="L33" s="129"/>
-      <c r="M33" s="128" t="s">
+      <c r="L33" s="148"/>
+      <c r="M33" s="150" t="s">
         <v>97</v>
       </c>
-      <c r="N33" s="128"/>
-      <c r="O33" s="128"/>
+      <c r="N33" s="150"/>
+      <c r="O33" s="150"/>
       <c r="P33" s="99" t="s">
         <v>79</v>
       </c>
@@ -15484,11 +15484,11 @@
         <v>143</v>
       </c>
       <c r="V33" s="99"/>
-      <c r="W33" s="127">
+      <c r="W33" s="151">
         <v>44213</v>
       </c>
       <c r="X33" s="99"/>
-      <c r="Y33" s="127">
+      <c r="Y33" s="151">
         <v>44213</v>
       </c>
       <c r="Z33" s="99"/>
@@ -15511,27 +15511,27 @@
       <c r="D34" s="73">
         <v>3</v>
       </c>
-      <c r="E34" s="129" t="s">
+      <c r="E34" s="148" t="s">
         <v>120</v>
       </c>
-      <c r="F34" s="129"/>
-      <c r="G34" s="129" t="s">
+      <c r="F34" s="148"/>
+      <c r="G34" s="148" t="s">
         <v>120</v>
       </c>
-      <c r="H34" s="129"/>
-      <c r="I34" s="129" t="s">
+      <c r="H34" s="148"/>
+      <c r="I34" s="148" t="s">
         <v>140</v>
       </c>
-      <c r="J34" s="129"/>
-      <c r="K34" s="129" t="s">
+      <c r="J34" s="148"/>
+      <c r="K34" s="148" t="s">
         <v>140</v>
       </c>
-      <c r="L34" s="129"/>
-      <c r="M34" s="128" t="s">
+      <c r="L34" s="148"/>
+      <c r="M34" s="150" t="s">
         <v>98</v>
       </c>
-      <c r="N34" s="128"/>
-      <c r="O34" s="128"/>
+      <c r="N34" s="150"/>
+      <c r="O34" s="150"/>
       <c r="P34" s="99" t="s">
         <v>79</v>
       </c>
@@ -15545,11 +15545,11 @@
         <v>144</v>
       </c>
       <c r="V34" s="99"/>
-      <c r="W34" s="127">
+      <c r="W34" s="151">
         <v>44214</v>
       </c>
       <c r="X34" s="99"/>
-      <c r="Y34" s="127">
+      <c r="Y34" s="151">
         <v>44214</v>
       </c>
       <c r="Z34" s="99"/>
@@ -15572,27 +15572,27 @@
       <c r="D35" s="73">
         <v>2</v>
       </c>
-      <c r="E35" s="129" t="s">
+      <c r="E35" s="148" t="s">
         <v>121</v>
       </c>
-      <c r="F35" s="129"/>
-      <c r="G35" s="129" t="s">
+      <c r="F35" s="148"/>
+      <c r="G35" s="148" t="s">
         <v>121</v>
       </c>
-      <c r="H35" s="129"/>
-      <c r="I35" s="129" t="s">
+      <c r="H35" s="148"/>
+      <c r="I35" s="148" t="s">
         <v>141</v>
       </c>
-      <c r="J35" s="129"/>
-      <c r="K35" s="129" t="s">
+      <c r="J35" s="148"/>
+      <c r="K35" s="148" t="s">
         <v>141</v>
       </c>
-      <c r="L35" s="129"/>
-      <c r="M35" s="128" t="s">
+      <c r="L35" s="148"/>
+      <c r="M35" s="150" t="s">
         <v>99</v>
       </c>
-      <c r="N35" s="128"/>
-      <c r="O35" s="128"/>
+      <c r="N35" s="150"/>
+      <c r="O35" s="150"/>
       <c r="P35" s="99" t="s">
         <v>79</v>
       </c>
@@ -15606,11 +15606,11 @@
         <v>144</v>
       </c>
       <c r="V35" s="99"/>
-      <c r="W35" s="127">
+      <c r="W35" s="151">
         <v>44215</v>
       </c>
       <c r="X35" s="99"/>
-      <c r="Y35" s="127">
+      <c r="Y35" s="151">
         <v>44215</v>
       </c>
       <c r="Z35" s="99"/>
@@ -15633,27 +15633,27 @@
       <c r="D36" s="73">
         <v>1</v>
       </c>
-      <c r="E36" s="129" t="s">
+      <c r="E36" s="148" t="s">
         <v>122</v>
       </c>
-      <c r="F36" s="129"/>
-      <c r="G36" s="129" t="s">
+      <c r="F36" s="148"/>
+      <c r="G36" s="148" t="s">
         <v>122</v>
       </c>
-      <c r="H36" s="129"/>
-      <c r="I36" s="129" t="s">
+      <c r="H36" s="148"/>
+      <c r="I36" s="148" t="s">
         <v>142</v>
       </c>
-      <c r="J36" s="129"/>
-      <c r="K36" s="129" t="s">
+      <c r="J36" s="148"/>
+      <c r="K36" s="148" t="s">
         <v>142</v>
       </c>
-      <c r="L36" s="129"/>
-      <c r="M36" s="128" t="s">
+      <c r="L36" s="148"/>
+      <c r="M36" s="150" t="s">
         <v>100</v>
       </c>
-      <c r="N36" s="128"/>
-      <c r="O36" s="128"/>
+      <c r="N36" s="150"/>
+      <c r="O36" s="150"/>
       <c r="P36" s="99" t="s">
         <v>79</v>
       </c>
@@ -15667,11 +15667,11 @@
         <v>144</v>
       </c>
       <c r="V36" s="99"/>
-      <c r="W36" s="127">
+      <c r="W36" s="151">
         <v>44216</v>
       </c>
       <c r="X36" s="99"/>
-      <c r="Y36" s="127">
+      <c r="Y36" s="151">
         <v>44216</v>
       </c>
       <c r="Z36" s="99"/>
@@ -15692,12 +15692,12 @@
       <c r="B37" s="35"/>
       <c r="C37" s="37"/>
       <c r="D37" s="35"/>
-      <c r="E37" s="130"/>
-      <c r="F37" s="130"/>
+      <c r="E37" s="149"/>
+      <c r="F37" s="149"/>
       <c r="G37" s="35"/>
       <c r="H37" s="35"/>
-      <c r="I37" s="130"/>
-      <c r="J37" s="130"/>
+      <c r="I37" s="149"/>
+      <c r="J37" s="149"/>
       <c r="K37" s="35"/>
       <c r="L37" s="35"/>
       <c r="M37" s="35"/>
@@ -15795,72 +15795,72 @@
     <row r="40" spans="1:33" ht="12.75" customHeight="1">
       <c r="A40" s="35"/>
       <c r="B40" s="35"/>
-      <c r="C40" s="134" t="s">
+      <c r="C40" s="130" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="135"/>
-      <c r="E40" s="135"/>
-      <c r="F40" s="135"/>
-      <c r="G40" s="135"/>
-      <c r="H40" s="135"/>
-      <c r="I40" s="135"/>
-      <c r="J40" s="135"/>
-      <c r="K40" s="135"/>
-      <c r="L40" s="135"/>
-      <c r="M40" s="135"/>
-      <c r="N40" s="135"/>
-      <c r="O40" s="135"/>
-      <c r="P40" s="135"/>
-      <c r="Q40" s="135"/>
-      <c r="R40" s="135"/>
-      <c r="S40" s="135"/>
-      <c r="T40" s="135"/>
-      <c r="U40" s="135"/>
-      <c r="V40" s="135"/>
-      <c r="W40" s="135"/>
-      <c r="X40" s="135"/>
-      <c r="Y40" s="135"/>
-      <c r="Z40" s="135"/>
-      <c r="AA40" s="135"/>
-      <c r="AB40" s="135"/>
-      <c r="AC40" s="135"/>
-      <c r="AD40" s="135"/>
-      <c r="AE40" s="136"/>
+      <c r="D40" s="131"/>
+      <c r="E40" s="131"/>
+      <c r="F40" s="131"/>
+      <c r="G40" s="131"/>
+      <c r="H40" s="131"/>
+      <c r="I40" s="131"/>
+      <c r="J40" s="131"/>
+      <c r="K40" s="131"/>
+      <c r="L40" s="131"/>
+      <c r="M40" s="131"/>
+      <c r="N40" s="131"/>
+      <c r="O40" s="131"/>
+      <c r="P40" s="131"/>
+      <c r="Q40" s="131"/>
+      <c r="R40" s="131"/>
+      <c r="S40" s="131"/>
+      <c r="T40" s="131"/>
+      <c r="U40" s="131"/>
+      <c r="V40" s="131"/>
+      <c r="W40" s="131"/>
+      <c r="X40" s="131"/>
+      <c r="Y40" s="131"/>
+      <c r="Z40" s="131"/>
+      <c r="AA40" s="131"/>
+      <c r="AB40" s="131"/>
+      <c r="AC40" s="131"/>
+      <c r="AD40" s="131"/>
+      <c r="AE40" s="132"/>
       <c r="AF40" s="35"/>
       <c r="AG40" s="35"/>
     </row>
     <row r="41" spans="1:33" ht="12.75" customHeight="1">
       <c r="A41" s="35"/>
       <c r="B41" s="35"/>
-      <c r="C41" s="137"/>
-      <c r="D41" s="138"/>
-      <c r="E41" s="138"/>
-      <c r="F41" s="138"/>
-      <c r="G41" s="138"/>
-      <c r="H41" s="138"/>
-      <c r="I41" s="138"/>
-      <c r="J41" s="138"/>
-      <c r="K41" s="138"/>
-      <c r="L41" s="138"/>
-      <c r="M41" s="138"/>
-      <c r="N41" s="138"/>
-      <c r="O41" s="138"/>
-      <c r="P41" s="138"/>
-      <c r="Q41" s="138"/>
-      <c r="R41" s="138"/>
-      <c r="S41" s="138"/>
-      <c r="T41" s="138"/>
-      <c r="U41" s="138"/>
-      <c r="V41" s="138"/>
-      <c r="W41" s="138"/>
-      <c r="X41" s="138"/>
-      <c r="Y41" s="138"/>
-      <c r="Z41" s="138"/>
-      <c r="AA41" s="138"/>
-      <c r="AB41" s="138"/>
-      <c r="AC41" s="138"/>
-      <c r="AD41" s="138"/>
-      <c r="AE41" s="139"/>
+      <c r="C41" s="133"/>
+      <c r="D41" s="134"/>
+      <c r="E41" s="134"/>
+      <c r="F41" s="134"/>
+      <c r="G41" s="134"/>
+      <c r="H41" s="134"/>
+      <c r="I41" s="134"/>
+      <c r="J41" s="134"/>
+      <c r="K41" s="134"/>
+      <c r="L41" s="134"/>
+      <c r="M41" s="134"/>
+      <c r="N41" s="134"/>
+      <c r="O41" s="134"/>
+      <c r="P41" s="134"/>
+      <c r="Q41" s="134"/>
+      <c r="R41" s="134"/>
+      <c r="S41" s="134"/>
+      <c r="T41" s="134"/>
+      <c r="U41" s="134"/>
+      <c r="V41" s="134"/>
+      <c r="W41" s="134"/>
+      <c r="X41" s="134"/>
+      <c r="Y41" s="134"/>
+      <c r="Z41" s="134"/>
+      <c r="AA41" s="134"/>
+      <c r="AB41" s="134"/>
+      <c r="AC41" s="134"/>
+      <c r="AD41" s="134"/>
+      <c r="AE41" s="135"/>
       <c r="AF41" s="35"/>
       <c r="AG41" s="35"/>
     </row>
@@ -15901,15 +15901,246 @@
     </row>
   </sheetData>
   <mergeCells count="273">
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:AC3"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="A1:AG1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:AC2"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AC32:AD32"/>
+    <mergeCell ref="AC33:AD33"/>
+    <mergeCell ref="AC34:AD34"/>
+    <mergeCell ref="AC35:AD35"/>
+    <mergeCell ref="AC36:AD36"/>
+    <mergeCell ref="AC27:AD27"/>
+    <mergeCell ref="AC28:AD28"/>
+    <mergeCell ref="AC29:AD29"/>
+    <mergeCell ref="AC30:AD30"/>
+    <mergeCell ref="AC31:AD31"/>
+    <mergeCell ref="AC22:AD22"/>
+    <mergeCell ref="AC23:AD23"/>
+    <mergeCell ref="AC24:AD24"/>
+    <mergeCell ref="AC25:AD25"/>
+    <mergeCell ref="AC26:AD26"/>
+    <mergeCell ref="AC17:AD17"/>
+    <mergeCell ref="AC18:AD18"/>
+    <mergeCell ref="AC19:AD19"/>
+    <mergeCell ref="AC20:AD20"/>
+    <mergeCell ref="AC21:AD21"/>
+    <mergeCell ref="AA32:AB32"/>
+    <mergeCell ref="AA33:AB33"/>
+    <mergeCell ref="AA34:AB34"/>
+    <mergeCell ref="AA35:AB35"/>
+    <mergeCell ref="AA36:AB36"/>
+    <mergeCell ref="AA27:AB27"/>
+    <mergeCell ref="AA28:AB28"/>
+    <mergeCell ref="AA29:AB29"/>
+    <mergeCell ref="AA30:AB30"/>
+    <mergeCell ref="AA31:AB31"/>
+    <mergeCell ref="AA22:AB22"/>
+    <mergeCell ref="AA23:AB23"/>
+    <mergeCell ref="AA24:AB24"/>
+    <mergeCell ref="AA25:AB25"/>
+    <mergeCell ref="AA26:AB26"/>
+    <mergeCell ref="AA17:AB17"/>
+    <mergeCell ref="AA18:AB18"/>
+    <mergeCell ref="AA19:AB19"/>
+    <mergeCell ref="AA20:AB20"/>
+    <mergeCell ref="AA21:AB21"/>
+    <mergeCell ref="Y32:Z32"/>
+    <mergeCell ref="Y33:Z33"/>
+    <mergeCell ref="Y34:Z34"/>
+    <mergeCell ref="Y35:Z35"/>
+    <mergeCell ref="Y36:Z36"/>
+    <mergeCell ref="Y27:Z27"/>
+    <mergeCell ref="Y28:Z28"/>
+    <mergeCell ref="Y29:Z29"/>
+    <mergeCell ref="Y30:Z30"/>
+    <mergeCell ref="Y31:Z31"/>
+    <mergeCell ref="Y22:Z22"/>
+    <mergeCell ref="Y23:Z23"/>
+    <mergeCell ref="Y24:Z24"/>
+    <mergeCell ref="Y25:Z25"/>
+    <mergeCell ref="Y26:Z26"/>
+    <mergeCell ref="Y17:Z17"/>
+    <mergeCell ref="Y18:Z18"/>
+    <mergeCell ref="Y19:Z19"/>
+    <mergeCell ref="Y20:Z20"/>
+    <mergeCell ref="Y21:Z21"/>
+    <mergeCell ref="W32:X32"/>
+    <mergeCell ref="W33:X33"/>
+    <mergeCell ref="W34:X34"/>
+    <mergeCell ref="W35:X35"/>
+    <mergeCell ref="W36:X36"/>
+    <mergeCell ref="W27:X27"/>
+    <mergeCell ref="W28:X28"/>
+    <mergeCell ref="W29:X29"/>
+    <mergeCell ref="W30:X30"/>
+    <mergeCell ref="W31:X31"/>
+    <mergeCell ref="W22:X22"/>
+    <mergeCell ref="W23:X23"/>
+    <mergeCell ref="W24:X24"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="W17:X17"/>
+    <mergeCell ref="W18:X18"/>
+    <mergeCell ref="W19:X19"/>
+    <mergeCell ref="W20:X20"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="U32:V32"/>
+    <mergeCell ref="U33:V33"/>
+    <mergeCell ref="U34:V34"/>
+    <mergeCell ref="U35:V35"/>
+    <mergeCell ref="U36:V36"/>
+    <mergeCell ref="U27:V27"/>
+    <mergeCell ref="U28:V28"/>
+    <mergeCell ref="U29:V29"/>
+    <mergeCell ref="U30:V30"/>
+    <mergeCell ref="U31:V31"/>
+    <mergeCell ref="U22:V22"/>
+    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="U24:V24"/>
+    <mergeCell ref="U25:V25"/>
+    <mergeCell ref="U26:V26"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="U19:V19"/>
+    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="U21:V21"/>
+    <mergeCell ref="R32:T32"/>
+    <mergeCell ref="R33:T33"/>
+    <mergeCell ref="R34:T34"/>
+    <mergeCell ref="R35:T35"/>
+    <mergeCell ref="R36:T36"/>
+    <mergeCell ref="R27:T27"/>
+    <mergeCell ref="R28:T28"/>
+    <mergeCell ref="R29:T29"/>
+    <mergeCell ref="R30:T30"/>
+    <mergeCell ref="R31:T31"/>
+    <mergeCell ref="R22:T22"/>
+    <mergeCell ref="R23:T23"/>
+    <mergeCell ref="R24:T24"/>
+    <mergeCell ref="R25:T25"/>
+    <mergeCell ref="R26:T26"/>
+    <mergeCell ref="R17:T17"/>
+    <mergeCell ref="R18:T18"/>
+    <mergeCell ref="R19:T19"/>
+    <mergeCell ref="R20:T20"/>
+    <mergeCell ref="R21:T21"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="M32:O32"/>
+    <mergeCell ref="M33:O33"/>
+    <mergeCell ref="M34:O34"/>
+    <mergeCell ref="M35:O35"/>
+    <mergeCell ref="M36:O36"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="M29:O29"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="M31:O31"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
     <mergeCell ref="C5:AE6"/>
     <mergeCell ref="C40:AE41"/>
     <mergeCell ref="D10:F10"/>
@@ -15934,246 +16165,15 @@
     <mergeCell ref="S12:AA12"/>
     <mergeCell ref="E28:F28"/>
     <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="M32:O32"/>
-    <mergeCell ref="M33:O33"/>
-    <mergeCell ref="M34:O34"/>
-    <mergeCell ref="M35:O35"/>
-    <mergeCell ref="M36:O36"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="M29:O29"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="M31:O31"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="R22:T22"/>
-    <mergeCell ref="R23:T23"/>
-    <mergeCell ref="R24:T24"/>
-    <mergeCell ref="R25:T25"/>
-    <mergeCell ref="R26:T26"/>
-    <mergeCell ref="R17:T17"/>
-    <mergeCell ref="R18:T18"/>
-    <mergeCell ref="R19:T19"/>
-    <mergeCell ref="R20:T20"/>
-    <mergeCell ref="R21:T21"/>
-    <mergeCell ref="R32:T32"/>
-    <mergeCell ref="R33:T33"/>
-    <mergeCell ref="R34:T34"/>
-    <mergeCell ref="R35:T35"/>
-    <mergeCell ref="R36:T36"/>
-    <mergeCell ref="R27:T27"/>
-    <mergeCell ref="R28:T28"/>
-    <mergeCell ref="R29:T29"/>
-    <mergeCell ref="R30:T30"/>
-    <mergeCell ref="R31:T31"/>
-    <mergeCell ref="U22:V22"/>
-    <mergeCell ref="U23:V23"/>
-    <mergeCell ref="U24:V24"/>
-    <mergeCell ref="U25:V25"/>
-    <mergeCell ref="U26:V26"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="U19:V19"/>
-    <mergeCell ref="U20:V20"/>
-    <mergeCell ref="U21:V21"/>
-    <mergeCell ref="U32:V32"/>
-    <mergeCell ref="U33:V33"/>
-    <mergeCell ref="U34:V34"/>
-    <mergeCell ref="U35:V35"/>
-    <mergeCell ref="U36:V36"/>
-    <mergeCell ref="U27:V27"/>
-    <mergeCell ref="U28:V28"/>
-    <mergeCell ref="U29:V29"/>
-    <mergeCell ref="U30:V30"/>
-    <mergeCell ref="U31:V31"/>
-    <mergeCell ref="W22:X22"/>
-    <mergeCell ref="W23:X23"/>
-    <mergeCell ref="W24:X24"/>
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="W17:X17"/>
-    <mergeCell ref="W18:X18"/>
-    <mergeCell ref="W19:X19"/>
-    <mergeCell ref="W20:X20"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="W32:X32"/>
-    <mergeCell ref="W33:X33"/>
-    <mergeCell ref="W34:X34"/>
-    <mergeCell ref="W35:X35"/>
-    <mergeCell ref="W36:X36"/>
-    <mergeCell ref="W27:X27"/>
-    <mergeCell ref="W28:X28"/>
-    <mergeCell ref="W29:X29"/>
-    <mergeCell ref="W30:X30"/>
-    <mergeCell ref="W31:X31"/>
-    <mergeCell ref="Y22:Z22"/>
-    <mergeCell ref="Y23:Z23"/>
-    <mergeCell ref="Y24:Z24"/>
-    <mergeCell ref="Y25:Z25"/>
-    <mergeCell ref="Y26:Z26"/>
-    <mergeCell ref="Y17:Z17"/>
-    <mergeCell ref="Y18:Z18"/>
-    <mergeCell ref="Y19:Z19"/>
-    <mergeCell ref="Y20:Z20"/>
-    <mergeCell ref="Y21:Z21"/>
-    <mergeCell ref="Y32:Z32"/>
-    <mergeCell ref="Y33:Z33"/>
-    <mergeCell ref="Y34:Z34"/>
-    <mergeCell ref="Y35:Z35"/>
-    <mergeCell ref="Y36:Z36"/>
-    <mergeCell ref="Y27:Z27"/>
-    <mergeCell ref="Y28:Z28"/>
-    <mergeCell ref="Y29:Z29"/>
-    <mergeCell ref="Y30:Z30"/>
-    <mergeCell ref="Y31:Z31"/>
-    <mergeCell ref="AA22:AB22"/>
-    <mergeCell ref="AA23:AB23"/>
-    <mergeCell ref="AA24:AB24"/>
-    <mergeCell ref="AA25:AB25"/>
-    <mergeCell ref="AA26:AB26"/>
-    <mergeCell ref="AA17:AB17"/>
-    <mergeCell ref="AA18:AB18"/>
-    <mergeCell ref="AA19:AB19"/>
-    <mergeCell ref="AA20:AB20"/>
-    <mergeCell ref="AA21:AB21"/>
-    <mergeCell ref="AA32:AB32"/>
-    <mergeCell ref="AA33:AB33"/>
-    <mergeCell ref="AA34:AB34"/>
-    <mergeCell ref="AA35:AB35"/>
-    <mergeCell ref="AA36:AB36"/>
-    <mergeCell ref="AA27:AB27"/>
-    <mergeCell ref="AA28:AB28"/>
-    <mergeCell ref="AA29:AB29"/>
-    <mergeCell ref="AA30:AB30"/>
-    <mergeCell ref="AA31:AB31"/>
-    <mergeCell ref="AC22:AD22"/>
-    <mergeCell ref="AC23:AD23"/>
-    <mergeCell ref="AC24:AD24"/>
-    <mergeCell ref="AC25:AD25"/>
-    <mergeCell ref="AC26:AD26"/>
-    <mergeCell ref="AC17:AD17"/>
-    <mergeCell ref="AC18:AD18"/>
-    <mergeCell ref="AC19:AD19"/>
-    <mergeCell ref="AC20:AD20"/>
-    <mergeCell ref="AC21:AD21"/>
-    <mergeCell ref="AC32:AD32"/>
-    <mergeCell ref="AC33:AD33"/>
-    <mergeCell ref="AC34:AD34"/>
-    <mergeCell ref="AC35:AD35"/>
-    <mergeCell ref="AC36:AD36"/>
-    <mergeCell ref="AC27:AD27"/>
-    <mergeCell ref="AC28:AD28"/>
-    <mergeCell ref="AC29:AD29"/>
-    <mergeCell ref="AC30:AD30"/>
-    <mergeCell ref="AC31:AD31"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:AC3"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="A1:AG1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:AC2"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="AF2:AG2"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -17857,6 +17857,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="G40:Z41"/>
+    <mergeCell ref="K26:M26"/>
+    <mergeCell ref="H36:J37"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:AC3"/>
     <mergeCell ref="AD3:AE3"/>
     <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="G6:Z7"/>
@@ -17865,11 +17870,6 @@
     <mergeCell ref="G2:AC2"/>
     <mergeCell ref="AD2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="G40:Z41"/>
-    <mergeCell ref="K26:M26"/>
-    <mergeCell ref="H36:J37"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:AC3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <hyperlinks>
@@ -19864,6 +19864,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="H5:AA6"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="I50:K51"/>
+    <mergeCell ref="H52:AA53"/>
+    <mergeCell ref="I48:K49"/>
+    <mergeCell ref="L48:M49"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="G3:AC3"/>
     <mergeCell ref="AD3:AE3"/>
@@ -19873,12 +19879,6 @@
     <mergeCell ref="G2:AC2"/>
     <mergeCell ref="AD2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="H5:AA6"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="I50:K51"/>
-    <mergeCell ref="H52:AA53"/>
-    <mergeCell ref="I48:K49"/>
-    <mergeCell ref="L48:M49"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -21539,6 +21539,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="N11:V12"/>
+    <mergeCell ref="P16:S17"/>
+    <mergeCell ref="O18:T19"/>
+    <mergeCell ref="I39:AA40"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:AC3"/>
     <mergeCell ref="AD3:AE3"/>
     <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="I6:AA7"/>
@@ -21547,12 +21553,6 @@
     <mergeCell ref="G2:AC2"/>
     <mergeCell ref="AD2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="N11:V12"/>
-    <mergeCell ref="P16:S17"/>
-    <mergeCell ref="O18:T19"/>
-    <mergeCell ref="I39:AA40"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:AC3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -23259,6 +23259,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="G39:Y40"/>
+    <mergeCell ref="H35:J36"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:AC3"/>
     <mergeCell ref="AD3:AE3"/>
     <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="G6:Y7"/>
@@ -23267,11 +23272,6 @@
     <mergeCell ref="G2:AC2"/>
     <mergeCell ref="AD2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="G39:Y40"/>
-    <mergeCell ref="H35:J36"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:AC3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -24936,6 +24936,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="H6:Z7"/>
+    <mergeCell ref="H39:Z40"/>
+    <mergeCell ref="I11:X12"/>
+    <mergeCell ref="O15:Q16"/>
+    <mergeCell ref="O17:Q18"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="G3:AC3"/>
     <mergeCell ref="AD3:AE3"/>
@@ -24945,11 +24950,6 @@
     <mergeCell ref="G2:AC2"/>
     <mergeCell ref="AD2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="H6:Z7"/>
-    <mergeCell ref="H39:Z40"/>
-    <mergeCell ref="I11:X12"/>
-    <mergeCell ref="O15:Q16"/>
-    <mergeCell ref="O17:Q18"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -26610,6 +26610,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="N11:V12"/>
+    <mergeCell ref="P16:S17"/>
+    <mergeCell ref="O18:T19"/>
+    <mergeCell ref="I39:AA40"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:AC3"/>
     <mergeCell ref="AD3:AE3"/>
     <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="I6:AA7"/>
@@ -26618,12 +26624,6 @@
     <mergeCell ref="G2:AC2"/>
     <mergeCell ref="AD2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="N11:V12"/>
-    <mergeCell ref="P16:S17"/>
-    <mergeCell ref="O18:T19"/>
-    <mergeCell ref="I39:AA40"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:AC3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -26639,7 +26639,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:FU42"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="W28" sqref="W28"/>
     </sheetView>
   </sheetViews>
@@ -28310,8 +28310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C62A97B0-E0D9-4CB4-A384-82F9C965D678}">
   <dimension ref="A1:FU42"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="W20" sqref="W20"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="S35" sqref="S35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -31653,7 +31653,7 @@
   <dimension ref="A1:FU42"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="T27" sqref="T27"/>
+      <selection activeCell="X29" sqref="X29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -39989,6 +39989,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="G39:Y40"/>
+    <mergeCell ref="H10:L11"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:AC3"/>
+    <mergeCell ref="AD3:AE3"/>
     <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="G6:Y7"/>
     <mergeCell ref="A1:AG1"/>
@@ -39996,11 +40001,6 @@
     <mergeCell ref="G2:AC2"/>
     <mergeCell ref="AD2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="G39:Y40"/>
-    <mergeCell ref="H10:L11"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:AC3"/>
-    <mergeCell ref="AD3:AE3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>

--- a/Basic design document.xlsx
+++ b/Basic design document.xlsx
@@ -8,18 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\7-Programming-exercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1A91457-A677-4C16-ABFB-CA6A16B26325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C1364C5-2C8D-465F-B506-8EA08C6C4A5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="774" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="774" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="26" r:id="rId1"/>
-    <sheet name="IO関連図_ログイン" sheetId="13" r:id="rId2"/>
-    <sheet name="IO関連図_トップページ" sheetId="27" r:id="rId3"/>
-    <sheet name="IO関連図_アカウント登録" sheetId="28" r:id="rId4"/>
-    <sheet name="IO関連図_アカウント検索・一覧" sheetId="32" r:id="rId5"/>
-    <sheet name="IO関連図_アカウント更新" sheetId="30" r:id="rId6"/>
-    <sheet name="IO関連図_アカウント削除" sheetId="29" r:id="rId7"/>
+    <sheet name="IO関連図_ログイン・トップページ" sheetId="13" r:id="rId2"/>
+    <sheet name="IO関連図_アカウント登録" sheetId="28" r:id="rId3"/>
+    <sheet name="IO関連図_アカウント検索・一覧" sheetId="32" r:id="rId4"/>
+    <sheet name="IO関連図_アカウント更新" sheetId="30" r:id="rId5"/>
+    <sheet name="IO関連図_アカウント削除" sheetId="29" r:id="rId6"/>
+    <sheet name="画面レイアウト_共通ヘッダー・フッター" sheetId="45" r:id="rId7"/>
     <sheet name="画面レイアウト_ログイン" sheetId="15" r:id="rId8"/>
     <sheet name="画面レイアウト_トップページ" sheetId="33" r:id="rId9"/>
     <sheet name="画面レイアウト_アカウント登録" sheetId="35" r:id="rId10"/>
@@ -34,12 +34,11 @@
     <sheet name="画面レイアウト_アカウント削除完了" sheetId="41" r:id="rId19"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">IO関連図_アカウント検索・一覧!$A$1:$AG$42</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">IO関連図_アカウント更新!$A$1:$AG$42</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">IO関連図_アカウント削除!$A$1:$AG$42</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">IO関連図_アカウント登録!$A$1:$AG$42</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">IO関連図_トップページ!$A$1:$AG$42</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">IO関連図_ログイン!$A$1:$AG$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">IO関連図_アカウント検索・一覧!$A$1:$AG$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">IO関連図_アカウント更新!$A$1:$AG$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">IO関連図_アカウント削除!$A$1:$AG$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">IO関連図_アカウント登録!$A$1:$AG$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">IO関連図_ログイン・トップページ!$A$1:$AG$42</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="12">画面レイアウト_アカウント一覧!$A$1:$AG$42</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="13">画面レイアウト_アカウント更新!$A$1:$AG$42</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="14">画面レイアウト_アカウント更新確認!$A$1:$AG$53</definedName>
@@ -52,13 +51,13 @@
     <definedName name="_xlnm.Print_Area" localSheetId="11">画面レイアウト_アカウント登録完了!$A$1:$AG$42</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">画面レイアウト_トップページ!$A$1:$AG$42</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">画面レイアウト_ログイン!$A$1:$AG$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">画面レイアウト_共通ヘッダー・フッター!$A$1:$AG$42</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AF$43</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="4">IO関連図_アカウント検索・一覧!$1:$2</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="5">IO関連図_アカウント更新!$1:$2</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="6">IO関連図_アカウント削除!$1:$2</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="3">IO関連図_アカウント登録!$1:$2</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="2">IO関連図_トップページ!$1:$2</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="1">IO関連図_ログイン!$1:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="3">IO関連図_アカウント検索・一覧!$1:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="4">IO関連図_アカウント更新!$1:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="5">IO関連図_アカウント削除!$1:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="2">IO関連図_アカウント登録!$1:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">IO関連図_ログイン・トップページ!$1:$2</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="12">画面レイアウト_アカウント一覧!$1:$3</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="13">画面レイアウト_アカウント更新!$1:$3</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="14">画面レイアウト_アカウント更新確認!$1:$3</definedName>
@@ -71,6 +70,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="11">画面レイアウト_アカウント登録完了!$1:$3</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="8">画面レイアウト_トップページ!$1:$3</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="7">画面レイアウト_ログイン!$1:$3</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="6">画面レイアウト_共通ヘッダー・フッター!$1:$3</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="173">
   <si>
     <t>システム名</t>
     <rPh sb="4" eb="5">
@@ -1201,6 +1201,36 @@
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
+  <si>
+    <t>トップ　プロフィール　アカウント登録　問い合わせ　アカウント一覧　その他</t>
+    <rPh sb="16" eb="18">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Copyright D.I.Works| D.I.blog is the one which provides Ato Z about programming</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>共通ヘッダー・フッター</t>
+    <rPh sb="0" eb="2">
+      <t>キョウツウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
 </sst>
 </file>
 
@@ -1352,7 +1382,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -1529,6 +1559,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1539,7 +1582,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="157">
+  <cellXfs count="159">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
@@ -1887,6 +1930,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2788,573 +2837,6 @@
         <xdr:cNvPr id="2" name="computr1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FBB1395-9582-4204-B91C-957C16C65673}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noEditPoints="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1619250" y="2752725"/>
-          <a:ext cx="696595" cy="778510"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst>
-            <a:gd name="T0" fmla="*/ 19535 w 21600"/>
-            <a:gd name="T1" fmla="*/ 0 h 21600"/>
-            <a:gd name="T2" fmla="*/ 10800 w 21600"/>
-            <a:gd name="T3" fmla="*/ 0 h 21600"/>
-            <a:gd name="T4" fmla="*/ 2065 w 21600"/>
-            <a:gd name="T5" fmla="*/ 0 h 21600"/>
-            <a:gd name="T6" fmla="*/ 0 w 21600"/>
-            <a:gd name="T7" fmla="*/ 15388 h 21600"/>
-            <a:gd name="T8" fmla="*/ 0 w 21600"/>
-            <a:gd name="T9" fmla="*/ 21600 h 21600"/>
-            <a:gd name="T10" fmla="*/ 10800 w 21600"/>
-            <a:gd name="T11" fmla="*/ 21600 h 21600"/>
-            <a:gd name="T12" fmla="*/ 21600 w 21600"/>
-            <a:gd name="T13" fmla="*/ 21600 h 21600"/>
-            <a:gd name="T14" fmla="*/ 21600 w 21600"/>
-            <a:gd name="T15" fmla="*/ 15388 h 21600"/>
-            <a:gd name="T16" fmla="*/ 19535 w 21600"/>
-            <a:gd name="T17" fmla="*/ 13553 h 21600"/>
-            <a:gd name="T18" fmla="*/ 2065 w 21600"/>
-            <a:gd name="T19" fmla="*/ 13553 h 21600"/>
-            <a:gd name="T20" fmla="*/ 2065 w 21600"/>
-            <a:gd name="T21" fmla="*/ 6776 h 21600"/>
-            <a:gd name="T22" fmla="*/ 19535 w 21600"/>
-            <a:gd name="T23" fmla="*/ 6776 h 21600"/>
-            <a:gd name="T24" fmla="*/ 0 w 21600"/>
-            <a:gd name="T25" fmla="*/ 18494 h 21600"/>
-            <a:gd name="T26" fmla="*/ 21600 w 21600"/>
-            <a:gd name="T27" fmla="*/ 18494 h 21600"/>
-            <a:gd name="T28" fmla="*/ 4923 w 21600"/>
-            <a:gd name="T29" fmla="*/ 2541 h 21600"/>
-            <a:gd name="T30" fmla="*/ 16756 w 21600"/>
-            <a:gd name="T31" fmla="*/ 11153 h 21600"/>
-          </a:gdLst>
-          <a:ahLst/>
-          <a:cxnLst>
-            <a:cxn ang="0">
-              <a:pos x="T0" y="T1"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="T2" y="T3"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="T4" y="T5"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="T6" y="T7"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="T8" y="T9"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="T10" y="T11"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="T12" y="T13"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="T14" y="T15"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="T16" y="T17"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="T18" y="T19"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="T20" y="T21"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="T22" y="T23"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="T24" y="T25"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="T26" y="T27"/>
-            </a:cxn>
-          </a:cxnLst>
-          <a:rect l="T28" t="T29" r="T30" b="T31"/>
-          <a:pathLst>
-            <a:path w="21600" h="21600" extrusionOk="0">
-              <a:moveTo>
-                <a:pt x="16994" y="15388"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="16994" y="13553"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="19535" y="13553"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="19535" y="10729"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="19535" y="6776"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="19535" y="0"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="10800" y="0"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="2065" y="0"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="2065" y="6776"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="2065" y="10729"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="2065" y="13553"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="4606" y="13553"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="4606" y="15388"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="0" y="15388"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="0" y="21600"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="10800" y="21600"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="21600" y="21600"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="21600" y="15388"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="16994" y="15388"/>
-              </a:lnTo>
-              <a:close/>
-            </a:path>
-            <a:path w="21600" h="21600" extrusionOk="0">
-              <a:moveTo>
-                <a:pt x="4606" y="15388"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="4606" y="13553"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="16994" y="13553"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="16994" y="15388"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="4606" y="15388"/>
-              </a:lnTo>
-            </a:path>
-            <a:path w="21600" h="21600" extrusionOk="0">
-              <a:moveTo>
-                <a:pt x="4606" y="11294"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="4606" y="2259"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="16994" y="2259"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="16994" y="11294"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="4606" y="11294"/>
-              </a:lnTo>
-              <a:moveTo>
-                <a:pt x="13976" y="17082"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="13976" y="16376"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="20171" y="16376"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="20171" y="17082"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="13976" y="17082"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFCC"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="107763" dir="13500000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="808080"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>44450</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>31750</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectangle 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D56A6E11-C93C-47AD-9C79-BF1F3624B45C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3189605" y="2799080"/>
-          <a:ext cx="1983740" cy="694055"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="36576" bIns="0" anchor="ctr" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>アカウント情報の取得</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>196850</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Rectangle 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42301722-CF19-4A74-BEC4-83C77AD1E322}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2770505" y="855980"/>
-          <a:ext cx="3289935" cy="1231265"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="0" bIns="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1300"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>アカウントテーブル</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1300"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="ＭＳ Ｐゴシック"/>
-            <a:ea typeface="ＭＳ Ｐゴシック"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1300"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="ＭＳ Ｐゴシック"/>
-            <a:ea typeface="ＭＳ Ｐゴシック"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1300"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="ＭＳ Ｐゴシック"/>
-            <a:ea typeface="ＭＳ Ｐゴシック"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="ＭＳ Ｐゴシック"/>
-            <a:ea typeface="ＭＳ Ｐゴシック"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>184150</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>184150</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Line 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8842318-9EF1-4E82-B1F8-0A6BDFBBEB8E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeShapeType="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4182745" y="2164715"/>
-          <a:ext cx="0" cy="578485"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:noFill/>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>118110</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>220980</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>45721</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Line 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DBDE173-7E0A-4C9C-8038-64E624BFEF4A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeShapeType="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm flipV="1">
-          <a:off x="2373630" y="3078481"/>
-          <a:ext cx="666750" cy="7620"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd type="triangle" w="med" len="med"/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:noFill/>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>31750</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="computr1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C679E8D1-D98E-499C-AD22-ED52BBCAA4FF}"/>
             </a:ext>
           </a:extLst>
@@ -4033,7 +3515,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4754,7 +4236,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5541,7 +5023,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -26640,7 +26122,7 @@
   <dimension ref="A1:FU42"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="W28" sqref="W28"/>
+      <selection activeCell="Z43" sqref="Z43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -28307,11 +27789,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C62A97B0-E0D9-4CB4-A384-82F9C965D678}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91F496F2-4E06-4B64-904B-762A4EFCCD35}">
   <dimension ref="A1:FU42"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="S35" sqref="S35"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="T27" sqref="T27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -28371,7 +27853,7 @@
       <c r="E2" s="95"/>
       <c r="F2" s="96"/>
       <c r="G2" s="94" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H2" s="95"/>
       <c r="I2" s="95"/>
@@ -29978,11 +29460,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91F496F2-4E06-4B64-904B-762A4EFCCD35}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95317A22-AB92-4519-A2C8-35A49114B3CD}">
   <dimension ref="A1:FU42"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="T27" sqref="T27"/>
+      <selection activeCell="X29" sqref="X29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -31649,11 +31131,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95317A22-AB92-4519-A2C8-35A49114B3CD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56912949-90F8-458A-90ED-0A5C2BF50D60}">
   <dimension ref="A1:FU42"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="X29" sqref="X29"/>
+      <selection activeCell="S26" sqref="S26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -33320,11 +32802,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56912949-90F8-458A-90ED-0A5C2BF50D60}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43BDA2B8-140B-4A9E-92F8-FDD84825D291}">
   <dimension ref="A1:FU42"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="R26" sqref="R26"/>
+      <selection activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -34991,1682 +34473,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43BDA2B8-140B-4A9E-92F8-FDD84825D291}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFDD597E-EB23-4858-A3ED-F5059145C3E8}">
   <dimension ref="A1:FU42"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Q26" sqref="Q26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
-  <cols>
-    <col min="1" max="4" width="4.109375" style="1" customWidth="1"/>
-    <col min="5" max="6" width="4.109375" style="4" customWidth="1"/>
-    <col min="7" max="30" width="4.109375" style="1" customWidth="1"/>
-    <col min="31" max="33" width="4.109375" style="5" customWidth="1"/>
-    <col min="34" max="37" width="4" style="1" customWidth="1"/>
-    <col min="38" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A1" s="93" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
-      <c r="Q1" s="93"/>
-      <c r="R1" s="93"/>
-      <c r="S1" s="93"/>
-      <c r="T1" s="93"/>
-      <c r="U1" s="93"/>
-      <c r="V1" s="93"/>
-      <c r="W1" s="93"/>
-      <c r="X1" s="93"/>
-      <c r="Y1" s="93"/>
-      <c r="Z1" s="93"/>
-      <c r="AA1" s="93"/>
-      <c r="AB1" s="93"/>
-      <c r="AC1" s="93"/>
-      <c r="AD1" s="93"/>
-      <c r="AE1" s="93"/>
-      <c r="AF1" s="93"/>
-      <c r="AG1" s="93"/>
-    </row>
-    <row r="2" spans="1:177" ht="13.05" customHeight="1">
-      <c r="A2" s="94" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="94" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="95"/>
-      <c r="L2" s="95"/>
-      <c r="M2" s="95"/>
-      <c r="N2" s="95"/>
-      <c r="O2" s="95"/>
-      <c r="P2" s="95"/>
-      <c r="Q2" s="95"/>
-      <c r="R2" s="95"/>
-      <c r="S2" s="95"/>
-      <c r="T2" s="95"/>
-      <c r="U2" s="95"/>
-      <c r="V2" s="95"/>
-      <c r="W2" s="95"/>
-      <c r="X2" s="95"/>
-      <c r="Y2" s="95"/>
-      <c r="Z2" s="95"/>
-      <c r="AA2" s="95"/>
-      <c r="AB2" s="95"/>
-      <c r="AC2" s="96"/>
-      <c r="AD2" s="97" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE2" s="98"/>
-      <c r="AF2" s="94" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG2" s="96"/>
-    </row>
-    <row r="3" spans="1:177" s="3" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A3" s="94" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="95"/>
-      <c r="L3" s="95"/>
-      <c r="M3" s="95"/>
-      <c r="N3" s="95"/>
-      <c r="O3" s="95"/>
-      <c r="P3" s="95"/>
-      <c r="Q3" s="95"/>
-      <c r="R3" s="95"/>
-      <c r="S3" s="95"/>
-      <c r="T3" s="95"/>
-      <c r="U3" s="95"/>
-      <c r="V3" s="95"/>
-      <c r="W3" s="95"/>
-      <c r="X3" s="95"/>
-      <c r="Y3" s="95"/>
-      <c r="Z3" s="95"/>
-      <c r="AA3" s="95"/>
-      <c r="AB3" s="95"/>
-      <c r="AC3" s="96"/>
-      <c r="AD3" s="97"/>
-      <c r="AE3" s="98"/>
-      <c r="AF3" s="94" t="s">
-        <v>20</v>
-      </c>
-      <c r="AG3" s="96"/>
-      <c r="AH3" s="2"/>
-      <c r="AI3" s="6"/>
-      <c r="AJ3" s="6"/>
-      <c r="AK3" s="6"/>
-      <c r="AL3" s="6"/>
-      <c r="AM3" s="6"/>
-      <c r="AN3" s="6"/>
-      <c r="AO3" s="6"/>
-      <c r="AP3" s="6"/>
-      <c r="AQ3" s="6"/>
-      <c r="AR3" s="6"/>
-      <c r="AS3" s="6"/>
-      <c r="AT3" s="6"/>
-      <c r="AU3" s="6"/>
-      <c r="AV3" s="6"/>
-      <c r="AW3" s="6"/>
-      <c r="AX3" s="6"/>
-      <c r="AY3" s="6"/>
-      <c r="AZ3" s="6"/>
-      <c r="BA3" s="6"/>
-      <c r="BB3" s="6"/>
-      <c r="BC3" s="6"/>
-      <c r="BD3" s="6"/>
-      <c r="BE3" s="6"/>
-      <c r="BF3" s="6"/>
-      <c r="BG3" s="6"/>
-      <c r="BH3" s="6"/>
-      <c r="BI3" s="6"/>
-      <c r="BJ3" s="6"/>
-      <c r="BK3" s="6"/>
-      <c r="BL3" s="6"/>
-      <c r="BM3" s="6"/>
-      <c r="BN3" s="6"/>
-      <c r="BO3" s="6"/>
-      <c r="BP3" s="6"/>
-      <c r="BQ3" s="6"/>
-      <c r="BR3" s="6"/>
-      <c r="BS3" s="6"/>
-      <c r="BT3" s="6"/>
-      <c r="BU3" s="6"/>
-      <c r="BV3" s="6"/>
-      <c r="BW3" s="6"/>
-      <c r="BX3" s="6"/>
-      <c r="BY3" s="6"/>
-      <c r="BZ3" s="6"/>
-      <c r="CA3" s="6"/>
-      <c r="CB3" s="6"/>
-      <c r="CC3" s="6"/>
-      <c r="CD3" s="6"/>
-      <c r="CE3" s="6"/>
-      <c r="CF3" s="6"/>
-      <c r="CG3" s="6"/>
-      <c r="CH3" s="6"/>
-      <c r="CI3" s="6"/>
-      <c r="CJ3" s="6"/>
-      <c r="CK3" s="6"/>
-      <c r="CL3" s="6"/>
-      <c r="CM3" s="6"/>
-      <c r="CN3" s="6"/>
-      <c r="CO3" s="6"/>
-      <c r="CP3" s="6"/>
-      <c r="CQ3" s="6"/>
-      <c r="CR3" s="6"/>
-      <c r="CS3" s="6"/>
-      <c r="CT3" s="6"/>
-      <c r="CU3" s="6"/>
-      <c r="CV3" s="6"/>
-      <c r="CW3" s="6"/>
-      <c r="CX3" s="6"/>
-      <c r="CY3" s="6"/>
-      <c r="CZ3" s="6"/>
-      <c r="DA3" s="6"/>
-      <c r="DB3" s="6"/>
-      <c r="DC3" s="6"/>
-      <c r="DD3" s="6"/>
-      <c r="DE3" s="6"/>
-      <c r="DF3" s="6"/>
-      <c r="DG3" s="6"/>
-      <c r="DH3" s="6"/>
-      <c r="DI3" s="6"/>
-      <c r="DJ3" s="6"/>
-      <c r="DK3" s="6"/>
-      <c r="DL3" s="6"/>
-      <c r="DM3" s="6"/>
-      <c r="DN3" s="6"/>
-      <c r="DO3" s="6"/>
-      <c r="DP3" s="6"/>
-      <c r="DQ3" s="6"/>
-      <c r="DR3" s="6"/>
-      <c r="DS3" s="6"/>
-      <c r="DT3" s="6"/>
-      <c r="DU3" s="6"/>
-      <c r="DV3" s="6"/>
-      <c r="DW3" s="6"/>
-      <c r="DX3" s="6"/>
-      <c r="DY3" s="6"/>
-      <c r="DZ3" s="6"/>
-      <c r="EA3" s="6"/>
-      <c r="EB3" s="6"/>
-      <c r="EC3" s="6"/>
-      <c r="ED3" s="6"/>
-      <c r="EE3" s="6"/>
-      <c r="EF3" s="6"/>
-      <c r="EG3" s="6"/>
-      <c r="EH3" s="6"/>
-      <c r="EI3" s="6"/>
-      <c r="EJ3" s="6"/>
-      <c r="EK3" s="6"/>
-      <c r="EL3" s="6"/>
-      <c r="EM3" s="6"/>
-      <c r="EN3" s="6"/>
-      <c r="EO3" s="6"/>
-      <c r="EP3" s="6"/>
-      <c r="EQ3" s="6"/>
-      <c r="ER3" s="6"/>
-      <c r="ES3" s="6"/>
-      <c r="ET3" s="6"/>
-      <c r="EU3" s="6"/>
-      <c r="EV3" s="6"/>
-      <c r="EW3" s="6"/>
-      <c r="EX3" s="6"/>
-      <c r="EY3" s="6"/>
-      <c r="EZ3" s="6"/>
-      <c r="FA3" s="6"/>
-      <c r="FB3" s="6"/>
-      <c r="FC3" s="6"/>
-      <c r="FD3" s="6"/>
-      <c r="FE3" s="6"/>
-      <c r="FF3" s="6"/>
-      <c r="FG3" s="6"/>
-      <c r="FH3" s="6"/>
-      <c r="FI3" s="6"/>
-      <c r="FJ3" s="6"/>
-      <c r="FK3" s="6"/>
-      <c r="FL3" s="6"/>
-      <c r="FM3" s="6"/>
-      <c r="FN3" s="6"/>
-      <c r="FO3" s="6"/>
-      <c r="FP3" s="6"/>
-      <c r="FQ3" s="6"/>
-      <c r="FR3" s="6"/>
-      <c r="FS3" s="6"/>
-      <c r="FT3" s="6"/>
-      <c r="FU3" s="6"/>
-    </row>
-    <row r="4" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A4" s="33"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="34"/>
-      <c r="P4" s="34"/>
-      <c r="Q4" s="34"/>
-      <c r="R4" s="34"/>
-      <c r="S4" s="34"/>
-      <c r="T4" s="34"/>
-      <c r="U4" s="34"/>
-      <c r="V4" s="34"/>
-      <c r="W4" s="34"/>
-      <c r="X4" s="34"/>
-      <c r="Y4" s="34"/>
-      <c r="Z4" s="34"/>
-      <c r="AA4" s="34"/>
-      <c r="AB4" s="34"/>
-      <c r="AC4" s="34"/>
-      <c r="AD4" s="34"/>
-      <c r="AE4" s="34"/>
-      <c r="AF4" s="34"/>
-      <c r="AG4" s="36"/>
-    </row>
-    <row r="5" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A5" s="37"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="35"/>
-      <c r="O5" s="35"/>
-      <c r="P5" s="35"/>
-      <c r="Q5" s="35"/>
-      <c r="R5" s="35"/>
-      <c r="S5" s="35"/>
-      <c r="T5" s="35"/>
-      <c r="U5" s="35"/>
-      <c r="V5" s="35"/>
-      <c r="W5" s="35"/>
-      <c r="X5" s="35"/>
-      <c r="Y5" s="35"/>
-      <c r="Z5" s="35"/>
-      <c r="AA5" s="35"/>
-      <c r="AB5" s="35"/>
-      <c r="AC5" s="35"/>
-      <c r="AD5" s="35"/>
-      <c r="AE5" s="35"/>
-      <c r="AF5" s="35"/>
-      <c r="AG5" s="39"/>
-    </row>
-    <row r="6" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A6" s="37"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="35"/>
-      <c r="O6" s="35"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="35"/>
-      <c r="R6" s="35"/>
-      <c r="S6" s="35"/>
-      <c r="T6" s="35"/>
-      <c r="U6" s="35"/>
-      <c r="V6" s="35"/>
-      <c r="W6" s="35"/>
-      <c r="X6" s="35"/>
-      <c r="Y6" s="35"/>
-      <c r="Z6" s="35"/>
-      <c r="AA6" s="35"/>
-      <c r="AB6" s="35"/>
-      <c r="AC6" s="35"/>
-      <c r="AD6" s="35"/>
-      <c r="AE6" s="35"/>
-      <c r="AF6" s="35"/>
-      <c r="AG6" s="39"/>
-    </row>
-    <row r="7" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A7" s="37"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="35"/>
-      <c r="N7" s="35"/>
-      <c r="O7" s="35"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="35"/>
-      <c r="R7" s="35"/>
-      <c r="S7" s="40"/>
-      <c r="T7" s="40"/>
-      <c r="U7" s="40"/>
-      <c r="V7" s="40"/>
-      <c r="W7" s="40"/>
-      <c r="X7" s="40"/>
-      <c r="Y7" s="40"/>
-      <c r="Z7" s="35"/>
-      <c r="AA7" s="35"/>
-      <c r="AB7" s="35"/>
-      <c r="AC7" s="35"/>
-      <c r="AD7" s="35"/>
-      <c r="AE7" s="35"/>
-      <c r="AF7" s="35"/>
-      <c r="AG7" s="39"/>
-    </row>
-    <row r="8" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A8" s="37"/>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="35"/>
-      <c r="N8" s="35"/>
-      <c r="O8" s="35"/>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="35"/>
-      <c r="R8" s="35"/>
-      <c r="S8" s="35"/>
-      <c r="T8" s="40"/>
-      <c r="U8" s="40"/>
-      <c r="V8" s="40"/>
-      <c r="W8" s="40"/>
-      <c r="X8" s="40"/>
-      <c r="Y8" s="40"/>
-      <c r="Z8" s="35"/>
-      <c r="AA8" s="35"/>
-      <c r="AB8" s="35"/>
-      <c r="AC8" s="35"/>
-      <c r="AD8" s="35"/>
-      <c r="AE8" s="35"/>
-      <c r="AF8" s="35"/>
-      <c r="AG8" s="39"/>
-    </row>
-    <row r="9" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A9" s="37"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="35"/>
-      <c r="N9" s="35"/>
-      <c r="O9" s="35"/>
-      <c r="P9" s="40"/>
-      <c r="Q9" s="35"/>
-      <c r="R9" s="35"/>
-      <c r="S9" s="35"/>
-      <c r="T9" s="40"/>
-      <c r="U9" s="40"/>
-      <c r="V9" s="40"/>
-      <c r="W9" s="40"/>
-      <c r="X9" s="40"/>
-      <c r="Y9" s="40"/>
-      <c r="Z9" s="35"/>
-      <c r="AA9" s="35"/>
-      <c r="AB9" s="35"/>
-      <c r="AC9" s="35"/>
-      <c r="AD9" s="35"/>
-      <c r="AE9" s="35"/>
-      <c r="AF9" s="35"/>
-      <c r="AG9" s="39"/>
-    </row>
-    <row r="10" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A10" s="37"/>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="35"/>
-      <c r="N10" s="35"/>
-      <c r="O10" s="35"/>
-      <c r="P10" s="40"/>
-      <c r="Q10" s="35"/>
-      <c r="R10" s="35"/>
-      <c r="S10" s="40"/>
-      <c r="T10" s="40"/>
-      <c r="U10" s="40"/>
-      <c r="V10" s="40"/>
-      <c r="W10" s="40"/>
-      <c r="X10" s="40"/>
-      <c r="Y10" s="40"/>
-      <c r="Z10" s="35"/>
-      <c r="AA10" s="35"/>
-      <c r="AB10" s="35"/>
-      <c r="AC10" s="35"/>
-      <c r="AD10" s="35"/>
-      <c r="AE10" s="35"/>
-      <c r="AF10" s="35"/>
-      <c r="AG10" s="39"/>
-    </row>
-    <row r="11" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A11" s="37"/>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="35"/>
-      <c r="N11" s="35"/>
-      <c r="O11" s="35"/>
-      <c r="P11" s="40"/>
-      <c r="Q11" s="35"/>
-      <c r="R11" s="35"/>
-      <c r="S11" s="35"/>
-      <c r="T11" s="35"/>
-      <c r="U11" s="35"/>
-      <c r="V11" s="35"/>
-      <c r="W11" s="35"/>
-      <c r="X11" s="35"/>
-      <c r="Y11" s="35"/>
-      <c r="Z11" s="35"/>
-      <c r="AA11" s="35"/>
-      <c r="AB11" s="35"/>
-      <c r="AC11" s="35"/>
-      <c r="AD11" s="35"/>
-      <c r="AE11" s="35"/>
-      <c r="AF11" s="35"/>
-      <c r="AG11" s="39"/>
-    </row>
-    <row r="12" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A12" s="37"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="35"/>
-      <c r="N12" s="35"/>
-      <c r="O12" s="35"/>
-      <c r="P12" s="40"/>
-      <c r="Q12" s="35"/>
-      <c r="R12" s="35"/>
-      <c r="S12" s="35"/>
-      <c r="T12" s="35"/>
-      <c r="U12" s="35"/>
-      <c r="V12" s="35"/>
-      <c r="W12" s="35"/>
-      <c r="X12" s="35"/>
-      <c r="Y12" s="35"/>
-      <c r="Z12" s="35"/>
-      <c r="AA12" s="35"/>
-      <c r="AB12" s="35"/>
-      <c r="AC12" s="35"/>
-      <c r="AD12" s="35"/>
-      <c r="AE12" s="35"/>
-      <c r="AF12" s="35"/>
-      <c r="AG12" s="39"/>
-    </row>
-    <row r="13" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A13" s="37"/>
-      <c r="B13" s="35"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="35"/>
-      <c r="N13" s="35"/>
-      <c r="O13" s="35"/>
-      <c r="P13" s="40"/>
-      <c r="Q13" s="35"/>
-      <c r="R13" s="35"/>
-      <c r="S13" s="35"/>
-      <c r="T13" s="35"/>
-      <c r="U13" s="35"/>
-      <c r="V13" s="40"/>
-      <c r="W13" s="40"/>
-      <c r="X13" s="35"/>
-      <c r="Y13" s="35"/>
-      <c r="Z13" s="35"/>
-      <c r="AA13" s="35"/>
-      <c r="AB13" s="35"/>
-      <c r="AC13" s="35"/>
-      <c r="AD13" s="35"/>
-      <c r="AE13" s="35"/>
-      <c r="AF13" s="35"/>
-      <c r="AG13" s="39"/>
-    </row>
-    <row r="14" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A14" s="37"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="35"/>
-      <c r="O14" s="35"/>
-      <c r="P14" s="40"/>
-      <c r="Q14" s="35"/>
-      <c r="R14" s="35"/>
-      <c r="S14" s="35"/>
-      <c r="T14" s="35"/>
-      <c r="U14" s="35"/>
-      <c r="V14" s="35"/>
-      <c r="W14" s="35"/>
-      <c r="X14" s="35"/>
-      <c r="Y14" s="35"/>
-      <c r="Z14" s="35"/>
-      <c r="AA14" s="35"/>
-      <c r="AB14" s="35"/>
-      <c r="AC14" s="35"/>
-      <c r="AD14" s="35"/>
-      <c r="AE14" s="35"/>
-      <c r="AF14" s="35"/>
-      <c r="AG14" s="39"/>
-    </row>
-    <row r="15" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A15" s="37"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="35"/>
-      <c r="N15" s="35"/>
-      <c r="O15" s="35"/>
-      <c r="P15" s="40"/>
-      <c r="Q15" s="35"/>
-      <c r="R15" s="35"/>
-      <c r="S15" s="35"/>
-      <c r="T15" s="35"/>
-      <c r="U15" s="35"/>
-      <c r="V15" s="35"/>
-      <c r="W15" s="35"/>
-      <c r="X15" s="35"/>
-      <c r="Y15" s="35"/>
-      <c r="Z15" s="35"/>
-      <c r="AA15" s="35"/>
-      <c r="AB15" s="35"/>
-      <c r="AC15" s="35"/>
-      <c r="AD15" s="35"/>
-      <c r="AE15" s="35"/>
-      <c r="AF15" s="35"/>
-      <c r="AG15" s="39"/>
-    </row>
-    <row r="16" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A16" s="37"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="35"/>
-      <c r="N16" s="35"/>
-      <c r="O16" s="35"/>
-      <c r="P16" s="40"/>
-      <c r="Q16" s="35"/>
-      <c r="R16" s="35"/>
-      <c r="S16" s="40"/>
-      <c r="T16" s="35"/>
-      <c r="U16" s="35"/>
-      <c r="V16" s="35"/>
-      <c r="W16" s="35"/>
-      <c r="X16" s="35"/>
-      <c r="Y16" s="35"/>
-      <c r="Z16" s="35"/>
-      <c r="AA16" s="35"/>
-      <c r="AB16" s="35"/>
-      <c r="AC16" s="35"/>
-      <c r="AD16" s="35"/>
-      <c r="AE16" s="35"/>
-      <c r="AF16" s="35"/>
-      <c r="AG16" s="39"/>
-    </row>
-    <row r="17" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A17" s="37"/>
-      <c r="B17" s="35"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="35"/>
-      <c r="N17" s="35"/>
-      <c r="O17" s="35"/>
-      <c r="P17" s="40"/>
-      <c r="Q17" s="35"/>
-      <c r="R17" s="35"/>
-      <c r="S17" s="35"/>
-      <c r="T17" s="35"/>
-      <c r="U17" s="35"/>
-      <c r="V17" s="35"/>
-      <c r="W17" s="40"/>
-      <c r="X17" s="35"/>
-      <c r="Y17" s="35"/>
-      <c r="Z17" s="35"/>
-      <c r="AA17" s="35"/>
-      <c r="AB17" s="35"/>
-      <c r="AC17" s="35"/>
-      <c r="AD17" s="35"/>
-      <c r="AE17" s="35"/>
-      <c r="AF17" s="35"/>
-      <c r="AG17" s="39"/>
-    </row>
-    <row r="18" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A18" s="37"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="35"/>
-      <c r="O18" s="35"/>
-      <c r="P18" s="40"/>
-      <c r="Q18" s="35"/>
-      <c r="R18" s="35"/>
-      <c r="S18" s="35"/>
-      <c r="T18" s="35"/>
-      <c r="U18" s="35"/>
-      <c r="V18" s="40"/>
-      <c r="W18" s="40"/>
-      <c r="X18" s="35"/>
-      <c r="Y18" s="35"/>
-      <c r="Z18" s="35"/>
-      <c r="AA18" s="35"/>
-      <c r="AB18" s="35"/>
-      <c r="AC18" s="35"/>
-      <c r="AD18" s="35"/>
-      <c r="AE18" s="35"/>
-      <c r="AF18" s="35"/>
-      <c r="AG18" s="39"/>
-    </row>
-    <row r="19" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A19" s="37"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="35"/>
-      <c r="M19" s="35"/>
-      <c r="N19" s="35"/>
-      <c r="O19" s="35"/>
-      <c r="P19" s="40"/>
-      <c r="Q19" s="35"/>
-      <c r="R19" s="35"/>
-      <c r="S19" s="35"/>
-      <c r="T19" s="35"/>
-      <c r="U19" s="35"/>
-      <c r="V19" s="35"/>
-      <c r="W19" s="35"/>
-      <c r="X19" s="35"/>
-      <c r="Y19" s="35"/>
-      <c r="Z19" s="35"/>
-      <c r="AA19" s="35"/>
-      <c r="AB19" s="35"/>
-      <c r="AC19" s="35"/>
-      <c r="AD19" s="35"/>
-      <c r="AE19" s="35"/>
-      <c r="AF19" s="35"/>
-      <c r="AG19" s="39"/>
-    </row>
-    <row r="20" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A20" s="37"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="35"/>
-      <c r="L20" s="35"/>
-      <c r="M20" s="35"/>
-      <c r="N20" s="35"/>
-      <c r="O20" s="35"/>
-      <c r="P20" s="40"/>
-      <c r="Q20" s="35"/>
-      <c r="R20" s="35"/>
-      <c r="S20" s="35"/>
-      <c r="T20" s="35"/>
-      <c r="U20" s="35"/>
-      <c r="V20" s="35"/>
-      <c r="W20" s="35"/>
-      <c r="X20" s="35"/>
-      <c r="Y20" s="35"/>
-      <c r="Z20" s="35"/>
-      <c r="AA20" s="35"/>
-      <c r="AB20" s="35"/>
-      <c r="AC20" s="35"/>
-      <c r="AD20" s="35"/>
-      <c r="AE20" s="35"/>
-      <c r="AF20" s="35"/>
-      <c r="AG20" s="39"/>
-    </row>
-    <row r="21" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A21" s="37"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="35"/>
-      <c r="L21" s="35"/>
-      <c r="M21" s="35"/>
-      <c r="N21" s="35"/>
-      <c r="O21" s="35"/>
-      <c r="P21" s="40"/>
-      <c r="Q21" s="35"/>
-      <c r="R21" s="35"/>
-      <c r="S21" s="40"/>
-      <c r="T21" s="40"/>
-      <c r="U21" s="40"/>
-      <c r="V21" s="40"/>
-      <c r="W21" s="40"/>
-      <c r="X21" s="40"/>
-      <c r="Y21" s="40"/>
-      <c r="Z21" s="35"/>
-      <c r="AA21" s="35"/>
-      <c r="AB21" s="35"/>
-      <c r="AC21" s="35"/>
-      <c r="AD21" s="35"/>
-      <c r="AE21" s="35"/>
-      <c r="AF21" s="35"/>
-      <c r="AG21" s="39"/>
-    </row>
-    <row r="22" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A22" s="37"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="35"/>
-      <c r="M22" s="35"/>
-      <c r="N22" s="35"/>
-      <c r="O22" s="35"/>
-      <c r="P22" s="40"/>
-      <c r="Q22" s="35"/>
-      <c r="R22" s="35"/>
-      <c r="S22" s="35"/>
-      <c r="T22" s="40"/>
-      <c r="U22" s="40"/>
-      <c r="V22" s="40"/>
-      <c r="W22" s="40"/>
-      <c r="X22" s="40"/>
-      <c r="Y22" s="40"/>
-      <c r="Z22" s="35"/>
-      <c r="AA22" s="35"/>
-      <c r="AB22" s="35"/>
-      <c r="AC22" s="35"/>
-      <c r="AD22" s="35"/>
-      <c r="AE22" s="35"/>
-      <c r="AF22" s="35"/>
-      <c r="AG22" s="39"/>
-    </row>
-    <row r="23" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A23" s="37"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="35"/>
-      <c r="K23" s="35"/>
-      <c r="L23" s="35"/>
-      <c r="M23" s="35"/>
-      <c r="N23" s="35"/>
-      <c r="O23" s="35"/>
-      <c r="P23" s="40"/>
-      <c r="Q23" s="35"/>
-      <c r="R23" s="35"/>
-      <c r="S23" s="40"/>
-      <c r="T23" s="40"/>
-      <c r="U23" s="40"/>
-      <c r="V23" s="40"/>
-      <c r="W23" s="40"/>
-      <c r="X23" s="40"/>
-      <c r="Y23" s="40"/>
-      <c r="Z23" s="35"/>
-      <c r="AA23" s="35"/>
-      <c r="AB23" s="35"/>
-      <c r="AC23" s="35"/>
-      <c r="AD23" s="35"/>
-      <c r="AE23" s="35"/>
-      <c r="AF23" s="35"/>
-      <c r="AG23" s="39"/>
-    </row>
-    <row r="24" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A24" s="37"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="35"/>
-      <c r="L24" s="35"/>
-      <c r="M24" s="35"/>
-      <c r="N24" s="35"/>
-      <c r="O24" s="35"/>
-      <c r="P24" s="40"/>
-      <c r="Q24" s="35"/>
-      <c r="R24" s="35"/>
-      <c r="S24" s="40"/>
-      <c r="T24" s="40"/>
-      <c r="U24" s="40"/>
-      <c r="V24" s="40"/>
-      <c r="W24" s="40"/>
-      <c r="X24" s="40"/>
-      <c r="Y24" s="40"/>
-      <c r="Z24" s="35"/>
-      <c r="AA24" s="35"/>
-      <c r="AB24" s="35"/>
-      <c r="AC24" s="35"/>
-      <c r="AD24" s="35"/>
-      <c r="AE24" s="35"/>
-      <c r="AF24" s="35"/>
-      <c r="AG24" s="39"/>
-    </row>
-    <row r="25" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A25" s="37"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="35"/>
-      <c r="I25" s="35"/>
-      <c r="J25" s="35"/>
-      <c r="K25" s="35"/>
-      <c r="L25" s="35"/>
-      <c r="M25" s="35"/>
-      <c r="N25" s="35"/>
-      <c r="O25" s="35"/>
-      <c r="P25" s="40"/>
-      <c r="Q25" s="35"/>
-      <c r="R25" s="35"/>
-      <c r="S25" s="40"/>
-      <c r="T25" s="40"/>
-      <c r="U25" s="40"/>
-      <c r="V25" s="40"/>
-      <c r="W25" s="40"/>
-      <c r="X25" s="40"/>
-      <c r="Y25" s="40"/>
-      <c r="Z25" s="35"/>
-      <c r="AA25" s="35"/>
-      <c r="AB25" s="35"/>
-      <c r="AC25" s="35"/>
-      <c r="AD25" s="35"/>
-      <c r="AE25" s="35"/>
-      <c r="AF25" s="35"/>
-      <c r="AG25" s="39"/>
-    </row>
-    <row r="26" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A26" s="37"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="35"/>
-      <c r="J26" s="35"/>
-      <c r="K26" s="35"/>
-      <c r="L26" s="35"/>
-      <c r="M26" s="35"/>
-      <c r="N26" s="35"/>
-      <c r="O26" s="35"/>
-      <c r="P26" s="40"/>
-      <c r="Q26" s="35"/>
-      <c r="R26" s="35"/>
-      <c r="S26" s="40"/>
-      <c r="T26" s="40"/>
-      <c r="U26" s="40"/>
-      <c r="V26" s="40"/>
-      <c r="W26" s="40"/>
-      <c r="X26" s="40"/>
-      <c r="Y26" s="40"/>
-      <c r="Z26" s="35"/>
-      <c r="AA26" s="35"/>
-      <c r="AB26" s="35"/>
-      <c r="AC26" s="35"/>
-      <c r="AD26" s="35"/>
-      <c r="AE26" s="35"/>
-      <c r="AF26" s="35"/>
-      <c r="AG26" s="39"/>
-    </row>
-    <row r="27" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A27" s="37"/>
-      <c r="B27" s="35"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="35"/>
-      <c r="I27" s="35"/>
-      <c r="J27" s="35"/>
-      <c r="K27" s="35"/>
-      <c r="L27" s="35"/>
-      <c r="M27" s="35"/>
-      <c r="N27" s="35"/>
-      <c r="O27" s="35"/>
-      <c r="P27" s="40"/>
-      <c r="Q27" s="35"/>
-      <c r="R27" s="35"/>
-      <c r="S27" s="40"/>
-      <c r="T27" s="40"/>
-      <c r="U27" s="40"/>
-      <c r="V27" s="40"/>
-      <c r="W27" s="40"/>
-      <c r="X27" s="40"/>
-      <c r="Y27" s="40"/>
-      <c r="Z27" s="35"/>
-      <c r="AA27" s="35"/>
-      <c r="AB27" s="35"/>
-      <c r="AC27" s="35"/>
-      <c r="AD27" s="35"/>
-      <c r="AE27" s="35"/>
-      <c r="AF27" s="35"/>
-      <c r="AG27" s="39"/>
-    </row>
-    <row r="28" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A28" s="37"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="35"/>
-      <c r="J28" s="35"/>
-      <c r="K28" s="35"/>
-      <c r="L28" s="35"/>
-      <c r="M28" s="35"/>
-      <c r="N28" s="35"/>
-      <c r="O28" s="35"/>
-      <c r="P28" s="40"/>
-      <c r="Q28" s="35"/>
-      <c r="R28" s="35"/>
-      <c r="S28" s="40"/>
-      <c r="T28" s="40"/>
-      <c r="U28" s="40"/>
-      <c r="V28" s="40"/>
-      <c r="W28" s="40"/>
-      <c r="X28" s="40"/>
-      <c r="Y28" s="40"/>
-      <c r="Z28" s="35"/>
-      <c r="AA28" s="35"/>
-      <c r="AB28" s="35"/>
-      <c r="AC28" s="35"/>
-      <c r="AD28" s="35"/>
-      <c r="AE28" s="35"/>
-      <c r="AF28" s="35"/>
-      <c r="AG28" s="39"/>
-    </row>
-    <row r="29" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A29" s="37"/>
-      <c r="B29" s="35"/>
-      <c r="C29" s="35"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="35"/>
-      <c r="I29" s="35"/>
-      <c r="J29" s="35"/>
-      <c r="K29" s="35"/>
-      <c r="L29" s="35"/>
-      <c r="M29" s="35"/>
-      <c r="N29" s="35"/>
-      <c r="O29" s="35"/>
-      <c r="P29" s="35"/>
-      <c r="Q29" s="35"/>
-      <c r="R29" s="35"/>
-      <c r="S29" s="35"/>
-      <c r="T29" s="35"/>
-      <c r="U29" s="35"/>
-      <c r="V29" s="35"/>
-      <c r="W29" s="35"/>
-      <c r="X29" s="35"/>
-      <c r="Y29" s="35"/>
-      <c r="Z29" s="35"/>
-      <c r="AA29" s="35"/>
-      <c r="AB29" s="35"/>
-      <c r="AC29" s="35"/>
-      <c r="AD29" s="35"/>
-      <c r="AE29" s="35"/>
-      <c r="AF29" s="35"/>
-      <c r="AG29" s="39"/>
-    </row>
-    <row r="30" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A30" s="37"/>
-      <c r="B30" s="35"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="35"/>
-      <c r="I30" s="35"/>
-      <c r="J30" s="35"/>
-      <c r="K30" s="35"/>
-      <c r="L30" s="35"/>
-      <c r="M30" s="35"/>
-      <c r="N30" s="35"/>
-      <c r="O30" s="35"/>
-      <c r="P30" s="35"/>
-      <c r="Q30" s="35"/>
-      <c r="R30" s="35"/>
-      <c r="S30" s="35"/>
-      <c r="T30" s="35"/>
-      <c r="U30" s="35"/>
-      <c r="V30" s="35"/>
-      <c r="W30" s="35"/>
-      <c r="X30" s="35"/>
-      <c r="Y30" s="35"/>
-      <c r="Z30" s="35"/>
-      <c r="AA30" s="35"/>
-      <c r="AB30" s="35"/>
-      <c r="AC30" s="35"/>
-      <c r="AD30" s="35"/>
-      <c r="AE30" s="35"/>
-      <c r="AF30" s="35"/>
-      <c r="AG30" s="39"/>
-    </row>
-    <row r="31" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A31" s="37"/>
-      <c r="B31" s="35"/>
-      <c r="C31" s="35"/>
-      <c r="D31" s="35"/>
-      <c r="E31" s="35"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="35"/>
-      <c r="H31" s="35"/>
-      <c r="I31" s="35"/>
-      <c r="J31" s="35"/>
-      <c r="K31" s="35"/>
-      <c r="L31" s="35"/>
-      <c r="M31" s="35"/>
-      <c r="N31" s="35"/>
-      <c r="O31" s="35"/>
-      <c r="P31" s="35"/>
-      <c r="Q31" s="35"/>
-      <c r="R31" s="35"/>
-      <c r="S31" s="35"/>
-      <c r="T31" s="35"/>
-      <c r="U31" s="35"/>
-      <c r="V31" s="35"/>
-      <c r="W31" s="35"/>
-      <c r="X31" s="35"/>
-      <c r="Y31" s="35"/>
-      <c r="Z31" s="35"/>
-      <c r="AA31" s="35"/>
-      <c r="AB31" s="35"/>
-      <c r="AC31" s="35"/>
-      <c r="AD31" s="35"/>
-      <c r="AE31" s="35"/>
-      <c r="AF31" s="35"/>
-      <c r="AG31" s="39"/>
-    </row>
-    <row r="32" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A32" s="37"/>
-      <c r="B32" s="35"/>
-      <c r="C32" s="35"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="35"/>
-      <c r="I32" s="35"/>
-      <c r="J32" s="35"/>
-      <c r="K32" s="35"/>
-      <c r="L32" s="35"/>
-      <c r="M32" s="35"/>
-      <c r="N32" s="35"/>
-      <c r="O32" s="35"/>
-      <c r="P32" s="35"/>
-      <c r="Q32" s="35"/>
-      <c r="R32" s="35"/>
-      <c r="S32" s="35"/>
-      <c r="T32" s="35"/>
-      <c r="U32" s="35"/>
-      <c r="V32" s="35"/>
-      <c r="W32" s="35"/>
-      <c r="X32" s="35"/>
-      <c r="Y32" s="35"/>
-      <c r="Z32" s="35"/>
-      <c r="AA32" s="35"/>
-      <c r="AB32" s="35"/>
-      <c r="AC32" s="35"/>
-      <c r="AD32" s="35"/>
-      <c r="AE32" s="35"/>
-      <c r="AF32" s="35"/>
-      <c r="AG32" s="39"/>
-    </row>
-    <row r="33" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A33" s="37"/>
-      <c r="B33" s="35"/>
-      <c r="C33" s="35"/>
-      <c r="D33" s="35"/>
-      <c r="E33" s="35"/>
-      <c r="F33" s="35"/>
-      <c r="G33" s="35"/>
-      <c r="H33" s="35"/>
-      <c r="I33" s="35"/>
-      <c r="J33" s="35"/>
-      <c r="K33" s="35"/>
-      <c r="L33" s="35"/>
-      <c r="M33" s="35"/>
-      <c r="N33" s="35"/>
-      <c r="O33" s="35"/>
-      <c r="P33" s="35"/>
-      <c r="Q33" s="35"/>
-      <c r="R33" s="35"/>
-      <c r="S33" s="35"/>
-      <c r="T33" s="35"/>
-      <c r="U33" s="35"/>
-      <c r="V33" s="35"/>
-      <c r="W33" s="35"/>
-      <c r="X33" s="35"/>
-      <c r="Y33" s="35"/>
-      <c r="Z33" s="35"/>
-      <c r="AA33" s="35"/>
-      <c r="AB33" s="35"/>
-      <c r="AC33" s="35"/>
-      <c r="AD33" s="35"/>
-      <c r="AE33" s="35"/>
-      <c r="AF33" s="35"/>
-      <c r="AG33" s="39"/>
-    </row>
-    <row r="34" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A34" s="37"/>
-      <c r="B34" s="35"/>
-      <c r="C34" s="35"/>
-      <c r="D34" s="35"/>
-      <c r="E34" s="35"/>
-      <c r="F34" s="35"/>
-      <c r="G34" s="35"/>
-      <c r="H34" s="35"/>
-      <c r="I34" s="35"/>
-      <c r="J34" s="35"/>
-      <c r="K34" s="35"/>
-      <c r="L34" s="35"/>
-      <c r="M34" s="35"/>
-      <c r="N34" s="35"/>
-      <c r="O34" s="35"/>
-      <c r="P34" s="35"/>
-      <c r="Q34" s="35"/>
-      <c r="R34" s="35"/>
-      <c r="S34" s="35"/>
-      <c r="T34" s="35"/>
-      <c r="U34" s="35"/>
-      <c r="V34" s="35"/>
-      <c r="W34" s="35"/>
-      <c r="X34" s="35"/>
-      <c r="Y34" s="35"/>
-      <c r="Z34" s="35"/>
-      <c r="AA34" s="35"/>
-      <c r="AB34" s="35"/>
-      <c r="AC34" s="35"/>
-      <c r="AD34" s="35"/>
-      <c r="AE34" s="35"/>
-      <c r="AF34" s="35"/>
-      <c r="AG34" s="39"/>
-    </row>
-    <row r="35" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A35" s="37"/>
-      <c r="B35" s="35"/>
-      <c r="C35" s="35"/>
-      <c r="D35" s="35"/>
-      <c r="E35" s="35"/>
-      <c r="F35" s="35"/>
-      <c r="G35" s="35"/>
-      <c r="H35" s="35"/>
-      <c r="I35" s="35"/>
-      <c r="J35" s="35"/>
-      <c r="K35" s="35"/>
-      <c r="L35" s="35"/>
-      <c r="M35" s="35"/>
-      <c r="N35" s="35"/>
-      <c r="O35" s="35"/>
-      <c r="P35" s="35"/>
-      <c r="Q35" s="35"/>
-      <c r="R35" s="35"/>
-      <c r="S35" s="35"/>
-      <c r="T35" s="35"/>
-      <c r="U35" s="35"/>
-      <c r="V35" s="35"/>
-      <c r="W35" s="35"/>
-      <c r="X35" s="35"/>
-      <c r="Y35" s="35"/>
-      <c r="Z35" s="35"/>
-      <c r="AA35" s="35"/>
-      <c r="AB35" s="35"/>
-      <c r="AC35" s="35"/>
-      <c r="AD35" s="35"/>
-      <c r="AE35" s="35"/>
-      <c r="AF35" s="35"/>
-      <c r="AG35" s="39"/>
-    </row>
-    <row r="36" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A36" s="37"/>
-      <c r="B36" s="35"/>
-      <c r="C36" s="35"/>
-      <c r="D36" s="35"/>
-      <c r="E36" s="35"/>
-      <c r="F36" s="35"/>
-      <c r="G36" s="35"/>
-      <c r="H36" s="35"/>
-      <c r="I36" s="35"/>
-      <c r="J36" s="35"/>
-      <c r="K36" s="35"/>
-      <c r="L36" s="35"/>
-      <c r="M36" s="35"/>
-      <c r="N36" s="35"/>
-      <c r="O36" s="35"/>
-      <c r="P36" s="35"/>
-      <c r="Q36" s="35"/>
-      <c r="R36" s="35"/>
-      <c r="S36" s="35"/>
-      <c r="T36" s="35"/>
-      <c r="U36" s="35"/>
-      <c r="V36" s="35"/>
-      <c r="W36" s="35"/>
-      <c r="X36" s="35"/>
-      <c r="Y36" s="35"/>
-      <c r="Z36" s="35"/>
-      <c r="AA36" s="35"/>
-      <c r="AB36" s="35"/>
-      <c r="AC36" s="35"/>
-      <c r="AD36" s="35"/>
-      <c r="AE36" s="35"/>
-      <c r="AF36" s="35"/>
-      <c r="AG36" s="39"/>
-    </row>
-    <row r="37" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A37" s="37"/>
-      <c r="B37" s="35"/>
-      <c r="C37" s="35"/>
-      <c r="D37" s="35"/>
-      <c r="E37" s="35"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="35"/>
-      <c r="H37" s="35"/>
-      <c r="I37" s="35"/>
-      <c r="J37" s="35"/>
-      <c r="K37" s="35"/>
-      <c r="L37" s="35"/>
-      <c r="M37" s="35"/>
-      <c r="N37" s="35"/>
-      <c r="O37" s="35"/>
-      <c r="P37" s="35"/>
-      <c r="Q37" s="35"/>
-      <c r="R37" s="35"/>
-      <c r="S37" s="35"/>
-      <c r="T37" s="35"/>
-      <c r="U37" s="35"/>
-      <c r="V37" s="35"/>
-      <c r="W37" s="35"/>
-      <c r="X37" s="35"/>
-      <c r="Y37" s="35"/>
-      <c r="Z37" s="35"/>
-      <c r="AA37" s="35"/>
-      <c r="AB37" s="35"/>
-      <c r="AC37" s="35"/>
-      <c r="AD37" s="35"/>
-      <c r="AE37" s="35"/>
-      <c r="AF37" s="35"/>
-      <c r="AG37" s="39"/>
-    </row>
-    <row r="38" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A38" s="41"/>
-      <c r="B38" s="42"/>
-      <c r="C38" s="42"/>
-      <c r="D38" s="42"/>
-      <c r="E38" s="42"/>
-      <c r="F38" s="42"/>
-      <c r="G38" s="42"/>
-      <c r="H38" s="42"/>
-      <c r="I38" s="42"/>
-      <c r="J38" s="42"/>
-      <c r="K38" s="42"/>
-      <c r="L38" s="42"/>
-      <c r="M38" s="42"/>
-      <c r="N38" s="42"/>
-      <c r="O38" s="42"/>
-      <c r="P38" s="42"/>
-      <c r="Q38" s="42"/>
-      <c r="R38" s="42"/>
-      <c r="S38" s="42"/>
-      <c r="T38" s="42"/>
-      <c r="U38" s="42"/>
-      <c r="V38" s="42"/>
-      <c r="W38" s="42"/>
-      <c r="X38" s="42"/>
-      <c r="Y38" s="42"/>
-      <c r="Z38" s="42"/>
-      <c r="AA38" s="42"/>
-      <c r="AB38" s="42"/>
-      <c r="AC38" s="42"/>
-      <c r="AD38" s="42"/>
-      <c r="AE38" s="42"/>
-      <c r="AF38" s="42"/>
-      <c r="AG38" s="43"/>
-    </row>
-    <row r="39" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A39" s="44" t="s">
-        <v>9</v>
-      </c>
-      <c r="B39" s="35"/>
-      <c r="C39" s="35"/>
-      <c r="D39" s="35"/>
-      <c r="E39" s="35"/>
-      <c r="F39" s="35"/>
-      <c r="G39" s="35"/>
-      <c r="H39" s="35"/>
-      <c r="I39" s="35"/>
-      <c r="J39" s="35"/>
-      <c r="K39" s="35"/>
-      <c r="L39" s="35"/>
-      <c r="M39" s="35"/>
-      <c r="N39" s="35"/>
-      <c r="O39" s="35"/>
-      <c r="P39" s="35"/>
-      <c r="Q39" s="35"/>
-      <c r="R39" s="35"/>
-      <c r="S39" s="35"/>
-      <c r="T39" s="35"/>
-      <c r="U39" s="35"/>
-      <c r="V39" s="35"/>
-      <c r="W39" s="35"/>
-      <c r="X39" s="35"/>
-      <c r="Y39" s="35"/>
-      <c r="Z39" s="35"/>
-      <c r="AA39" s="35"/>
-      <c r="AB39" s="35"/>
-      <c r="AC39" s="35"/>
-      <c r="AD39" s="35"/>
-      <c r="AE39" s="35"/>
-      <c r="AF39" s="35"/>
-      <c r="AG39" s="39"/>
-    </row>
-    <row r="40" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A40" s="37"/>
-      <c r="B40" s="35"/>
-      <c r="C40" s="35"/>
-      <c r="D40" s="35"/>
-      <c r="E40" s="35"/>
-      <c r="F40" s="35"/>
-      <c r="G40" s="35"/>
-      <c r="H40" s="35"/>
-      <c r="I40" s="35"/>
-      <c r="J40" s="35"/>
-      <c r="K40" s="35"/>
-      <c r="L40" s="35"/>
-      <c r="M40" s="35"/>
-      <c r="N40" s="35"/>
-      <c r="O40" s="35"/>
-      <c r="P40" s="35"/>
-      <c r="Q40" s="35"/>
-      <c r="R40" s="35"/>
-      <c r="S40" s="35"/>
-      <c r="T40" s="35"/>
-      <c r="U40" s="35"/>
-      <c r="V40" s="35"/>
-      <c r="W40" s="35"/>
-      <c r="X40" s="35"/>
-      <c r="Y40" s="35"/>
-      <c r="Z40" s="35"/>
-      <c r="AA40" s="35"/>
-      <c r="AB40" s="35"/>
-      <c r="AC40" s="35"/>
-      <c r="AD40" s="35"/>
-      <c r="AE40" s="35"/>
-      <c r="AF40" s="35"/>
-      <c r="AG40" s="39"/>
-    </row>
-    <row r="41" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A41" s="37"/>
-      <c r="B41" s="35"/>
-      <c r="C41" s="35"/>
-      <c r="D41" s="35"/>
-      <c r="E41" s="35"/>
-      <c r="F41" s="35"/>
-      <c r="G41" s="35"/>
-      <c r="H41" s="35"/>
-      <c r="I41" s="35"/>
-      <c r="J41" s="35"/>
-      <c r="K41" s="35"/>
-      <c r="L41" s="35"/>
-      <c r="M41" s="35"/>
-      <c r="N41" s="35"/>
-      <c r="O41" s="35"/>
-      <c r="P41" s="35"/>
-      <c r="Q41" s="35"/>
-      <c r="R41" s="35"/>
-      <c r="S41" s="35"/>
-      <c r="T41" s="35"/>
-      <c r="U41" s="35"/>
-      <c r="V41" s="35"/>
-      <c r="W41" s="35"/>
-      <c r="X41" s="35"/>
-      <c r="Y41" s="35"/>
-      <c r="Z41" s="35"/>
-      <c r="AA41" s="35"/>
-      <c r="AB41" s="35"/>
-      <c r="AC41" s="35"/>
-      <c r="AD41" s="35"/>
-      <c r="AE41" s="35"/>
-      <c r="AF41" s="35"/>
-      <c r="AG41" s="39"/>
-    </row>
-    <row r="42" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A42" s="41"/>
-      <c r="B42" s="42"/>
-      <c r="C42" s="42"/>
-      <c r="D42" s="42"/>
-      <c r="E42" s="42"/>
-      <c r="F42" s="42"/>
-      <c r="G42" s="42"/>
-      <c r="H42" s="42"/>
-      <c r="I42" s="42"/>
-      <c r="J42" s="42"/>
-      <c r="K42" s="42"/>
-      <c r="L42" s="42"/>
-      <c r="M42" s="42"/>
-      <c r="N42" s="42"/>
-      <c r="O42" s="42"/>
-      <c r="P42" s="42"/>
-      <c r="Q42" s="42"/>
-      <c r="R42" s="42"/>
-      <c r="S42" s="42"/>
-      <c r="T42" s="42"/>
-      <c r="U42" s="42"/>
-      <c r="V42" s="42"/>
-      <c r="W42" s="42"/>
-      <c r="X42" s="42"/>
-      <c r="Y42" s="42"/>
-      <c r="Z42" s="42"/>
-      <c r="AA42" s="42"/>
-      <c r="AB42" s="42"/>
-      <c r="AC42" s="42"/>
-      <c r="AD42" s="42"/>
-      <c r="AE42" s="42"/>
-      <c r="AF42" s="42"/>
-      <c r="AG42" s="43"/>
-    </row>
-  </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:AC3"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="A1:AG1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:AC2"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="AF2:AG2"/>
-  </mergeCells>
-  <phoneticPr fontId="4"/>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <headerFooter alignWithMargins="0">
-    <oddFooter>&amp;LCopyright© 2005 System Integrator Corp.&amp;C&amp;P</oddFooter>
-  </headerFooter>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:FU42"/>
-  <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AF14" sqref="AF14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -36726,7 +34537,7 @@
       <c r="E2" s="108"/>
       <c r="F2" s="109"/>
       <c r="G2" s="107" t="s">
-        <v>21</v>
+        <v>172</v>
       </c>
       <c r="H2" s="108"/>
       <c r="I2" s="108"/>
@@ -37019,27 +34830,27 @@
       <c r="D6" s="35"/>
       <c r="E6" s="35"/>
       <c r="F6" s="35"/>
-      <c r="G6" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" s="99"/>
-      <c r="I6" s="99"/>
-      <c r="J6" s="99"/>
-      <c r="K6" s="99"/>
-      <c r="L6" s="99"/>
-      <c r="M6" s="99"/>
-      <c r="N6" s="99"/>
-      <c r="O6" s="99"/>
-      <c r="P6" s="99"/>
-      <c r="Q6" s="99"/>
-      <c r="R6" s="99"/>
-      <c r="S6" s="99"/>
-      <c r="T6" s="99"/>
-      <c r="U6" s="99"/>
-      <c r="V6" s="99"/>
-      <c r="W6" s="99"/>
-      <c r="X6" s="99"/>
-      <c r="Y6" s="99"/>
+      <c r="G6" s="157" t="s">
+        <v>170</v>
+      </c>
+      <c r="H6" s="157"/>
+      <c r="I6" s="157"/>
+      <c r="J6" s="157"/>
+      <c r="K6" s="157"/>
+      <c r="L6" s="157"/>
+      <c r="M6" s="157"/>
+      <c r="N6" s="157"/>
+      <c r="O6" s="157"/>
+      <c r="P6" s="157"/>
+      <c r="Q6" s="157"/>
+      <c r="R6" s="157"/>
+      <c r="S6" s="157"/>
+      <c r="T6" s="157"/>
+      <c r="U6" s="157"/>
+      <c r="V6" s="157"/>
+      <c r="W6" s="157"/>
+      <c r="X6" s="157"/>
+      <c r="Y6" s="157"/>
       <c r="Z6" s="35"/>
       <c r="AA6" s="35"/>
       <c r="AB6" s="35"/>
@@ -37056,25 +34867,25 @@
       <c r="D7" s="35"/>
       <c r="E7" s="35"/>
       <c r="F7" s="35"/>
-      <c r="G7" s="99"/>
-      <c r="H7" s="99"/>
-      <c r="I7" s="99"/>
-      <c r="J7" s="99"/>
-      <c r="K7" s="99"/>
-      <c r="L7" s="99"/>
-      <c r="M7" s="99"/>
-      <c r="N7" s="99"/>
-      <c r="O7" s="99"/>
-      <c r="P7" s="99"/>
-      <c r="Q7" s="99"/>
-      <c r="R7" s="99"/>
-      <c r="S7" s="99"/>
-      <c r="T7" s="99"/>
-      <c r="U7" s="99"/>
-      <c r="V7" s="99"/>
-      <c r="W7" s="99"/>
-      <c r="X7" s="99"/>
-      <c r="Y7" s="99"/>
+      <c r="G7" s="157"/>
+      <c r="H7" s="158"/>
+      <c r="I7" s="158"/>
+      <c r="J7" s="158"/>
+      <c r="K7" s="158"/>
+      <c r="L7" s="158"/>
+      <c r="M7" s="158"/>
+      <c r="N7" s="158"/>
+      <c r="O7" s="158"/>
+      <c r="P7" s="158"/>
+      <c r="Q7" s="158"/>
+      <c r="R7" s="158"/>
+      <c r="S7" s="157"/>
+      <c r="T7" s="157"/>
+      <c r="U7" s="157"/>
+      <c r="V7" s="157"/>
+      <c r="W7" s="157"/>
+      <c r="X7" s="157"/>
+      <c r="Y7" s="157"/>
       <c r="Z7" s="35"/>
       <c r="AA7" s="35"/>
       <c r="AB7" s="35"/>
@@ -37092,17 +34903,17 @@
       <c r="E8" s="35"/>
       <c r="F8" s="35"/>
       <c r="G8" s="33"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="35"/>
-      <c r="N8" s="35"/>
-      <c r="O8" s="35"/>
-      <c r="P8" s="35"/>
-      <c r="Q8" s="35"/>
-      <c r="R8" s="35"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="34"/>
+      <c r="P8" s="34"/>
+      <c r="Q8" s="34"/>
+      <c r="R8" s="34"/>
       <c r="S8" s="35"/>
       <c r="T8" s="35"/>
       <c r="U8" s="35"/>
@@ -37127,9 +34938,7 @@
       <c r="E9" s="35"/>
       <c r="F9" s="35"/>
       <c r="G9" s="37"/>
-      <c r="H9" s="50" t="s">
-        <v>21</v>
-      </c>
+      <c r="H9" s="50"/>
       <c r="I9" s="35"/>
       <c r="J9" s="35"/>
       <c r="K9" s="35"/>
@@ -37156,7 +34965,7 @@
       <c r="AF9" s="35"/>
       <c r="AG9" s="35"/>
     </row>
-    <row r="10" spans="1:177" ht="12.75" customHeight="1" thickBot="1">
+    <row r="10" spans="1:177" ht="12.75" customHeight="1">
       <c r="A10" s="35"/>
       <c r="B10" s="35"/>
       <c r="C10" s="35"/>
@@ -37191,7 +35000,7 @@
       <c r="AF10" s="35"/>
       <c r="AG10" s="35"/>
     </row>
-    <row r="11" spans="1:177" ht="12.75" customHeight="1" thickBot="1">
+    <row r="11" spans="1:177" ht="12.75" customHeight="1">
       <c r="A11" s="35"/>
       <c r="B11" s="35"/>
       <c r="C11" s="35"/>
@@ -37199,17 +35008,15 @@
       <c r="E11" s="35"/>
       <c r="F11" s="35"/>
       <c r="G11" s="37"/>
-      <c r="H11" s="35" t="s">
-        <v>26</v>
-      </c>
+      <c r="H11" s="35"/>
       <c r="I11" s="35"/>
       <c r="J11" s="35"/>
       <c r="K11" s="35"/>
-      <c r="L11" s="47"/>
-      <c r="M11" s="48"/>
-      <c r="N11" s="48"/>
-      <c r="O11" s="48"/>
-      <c r="P11" s="49"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="35"/>
+      <c r="N11" s="35"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="35"/>
       <c r="Q11" s="35"/>
       <c r="R11" s="35"/>
       <c r="S11" s="35"/>
@@ -37228,7 +35035,7 @@
       <c r="AF11" s="35"/>
       <c r="AG11" s="35"/>
     </row>
-    <row r="12" spans="1:177" ht="12.75" customHeight="1" thickBot="1">
+    <row r="12" spans="1:177" ht="12.75" customHeight="1">
       <c r="A12" s="35"/>
       <c r="B12" s="35"/>
       <c r="C12" s="35"/>
@@ -37254,7 +35061,7 @@
       <c r="AF12" s="35"/>
       <c r="AG12" s="35"/>
     </row>
-    <row r="13" spans="1:177" ht="12.75" customHeight="1" thickBot="1">
+    <row r="13" spans="1:177" ht="12.75" customHeight="1">
       <c r="A13" s="35"/>
       <c r="B13" s="35"/>
       <c r="C13" s="35"/>
@@ -37262,17 +35069,15 @@
       <c r="E13" s="35"/>
       <c r="F13" s="35"/>
       <c r="G13" s="37"/>
-      <c r="H13" s="35" t="s">
-        <v>27</v>
-      </c>
+      <c r="H13" s="35"/>
       <c r="I13" s="35"/>
       <c r="J13" s="35"/>
       <c r="K13" s="35"/>
-      <c r="L13" s="47"/>
-      <c r="M13" s="48"/>
-      <c r="N13" s="48"/>
-      <c r="O13" s="48"/>
-      <c r="P13" s="49"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="35"/>
+      <c r="O13" s="35"/>
+      <c r="P13" s="35"/>
       <c r="Q13" s="35"/>
       <c r="R13" s="35"/>
       <c r="S13" s="35"/>
@@ -37334,11 +35139,9 @@
       <c r="E15" s="35"/>
       <c r="F15" s="35"/>
       <c r="G15" s="37"/>
-      <c r="H15" s="100" t="s">
-        <v>28</v>
-      </c>
-      <c r="I15" s="101"/>
-      <c r="J15" s="102"/>
+      <c r="H15" s="128"/>
+      <c r="I15" s="128"/>
+      <c r="J15" s="128"/>
       <c r="K15" s="35"/>
       <c r="L15" s="35"/>
       <c r="M15" s="35"/>
@@ -37371,9 +35174,9 @@
       <c r="E16" s="35"/>
       <c r="F16" s="35"/>
       <c r="G16" s="37"/>
-      <c r="H16" s="103"/>
-      <c r="I16" s="104"/>
-      <c r="J16" s="105"/>
+      <c r="H16" s="128"/>
+      <c r="I16" s="128"/>
+      <c r="J16" s="128"/>
       <c r="K16" s="35"/>
       <c r="L16" s="35"/>
       <c r="M16" s="35"/>
@@ -38176,7 +35979,7 @@
       <c r="E39" s="35"/>
       <c r="F39" s="35"/>
       <c r="G39" s="100" t="s">
-        <v>25</v>
+        <v>171</v>
       </c>
       <c r="H39" s="101"/>
       <c r="I39" s="101"/>
@@ -38316,14 +36119,14 @@
     <mergeCell ref="H15:J16"/>
     <mergeCell ref="G39:Y40"/>
     <mergeCell ref="A1:AG1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:AC2"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="G3:AC3"/>
     <mergeCell ref="AD3:AE3"/>
     <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:AC2"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="AF2:AG2"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -38335,12 +36138,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{534A76B3-0A29-4707-A5EA-800553836AB6}">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:FU42"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6:Y40"/>
+      <selection activeCell="V38" sqref="V38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -38400,7 +36203,7 @@
       <c r="E2" s="108"/>
       <c r="F2" s="109"/>
       <c r="G2" s="107" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H2" s="108"/>
       <c r="I2" s="108"/>
@@ -38693,6 +36496,1680 @@
       <c r="D6" s="35"/>
       <c r="E6" s="35"/>
       <c r="F6" s="35"/>
+      <c r="G6" s="99" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="99"/>
+      <c r="I6" s="99"/>
+      <c r="J6" s="99"/>
+      <c r="K6" s="99"/>
+      <c r="L6" s="99"/>
+      <c r="M6" s="99"/>
+      <c r="N6" s="99"/>
+      <c r="O6" s="99"/>
+      <c r="P6" s="99"/>
+      <c r="Q6" s="99"/>
+      <c r="R6" s="99"/>
+      <c r="S6" s="99"/>
+      <c r="T6" s="99"/>
+      <c r="U6" s="99"/>
+      <c r="V6" s="99"/>
+      <c r="W6" s="99"/>
+      <c r="X6" s="99"/>
+      <c r="Y6" s="99"/>
+      <c r="Z6" s="35"/>
+      <c r="AA6" s="35"/>
+      <c r="AB6" s="35"/>
+      <c r="AC6" s="35"/>
+      <c r="AD6" s="35"/>
+      <c r="AE6" s="35"/>
+      <c r="AF6" s="35"/>
+      <c r="AG6" s="35"/>
+    </row>
+    <row r="7" spans="1:177" ht="12.75" customHeight="1">
+      <c r="A7" s="35"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="99"/>
+      <c r="H7" s="99"/>
+      <c r="I7" s="99"/>
+      <c r="J7" s="99"/>
+      <c r="K7" s="99"/>
+      <c r="L7" s="99"/>
+      <c r="M7" s="99"/>
+      <c r="N7" s="99"/>
+      <c r="O7" s="99"/>
+      <c r="P7" s="99"/>
+      <c r="Q7" s="99"/>
+      <c r="R7" s="99"/>
+      <c r="S7" s="99"/>
+      <c r="T7" s="99"/>
+      <c r="U7" s="99"/>
+      <c r="V7" s="99"/>
+      <c r="W7" s="99"/>
+      <c r="X7" s="99"/>
+      <c r="Y7" s="99"/>
+      <c r="Z7" s="35"/>
+      <c r="AA7" s="35"/>
+      <c r="AB7" s="35"/>
+      <c r="AC7" s="35"/>
+      <c r="AD7" s="35"/>
+      <c r="AE7" s="35"/>
+      <c r="AF7" s="35"/>
+      <c r="AG7" s="35"/>
+    </row>
+    <row r="8" spans="1:177" ht="12.75" customHeight="1">
+      <c r="A8" s="35"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="35"/>
+      <c r="O8" s="35"/>
+      <c r="P8" s="35"/>
+      <c r="Q8" s="35"/>
+      <c r="R8" s="35"/>
+      <c r="S8" s="35"/>
+      <c r="T8" s="35"/>
+      <c r="U8" s="35"/>
+      <c r="V8" s="35"/>
+      <c r="W8" s="35"/>
+      <c r="X8" s="35"/>
+      <c r="Y8" s="36"/>
+      <c r="Z8" s="35"/>
+      <c r="AA8" s="35"/>
+      <c r="AB8" s="35"/>
+      <c r="AC8" s="35"/>
+      <c r="AD8" s="35"/>
+      <c r="AE8" s="35"/>
+      <c r="AF8" s="35"/>
+      <c r="AG8" s="35"/>
+    </row>
+    <row r="9" spans="1:177" ht="12.75" customHeight="1">
+      <c r="A9" s="35"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="35"/>
+      <c r="P9" s="35"/>
+      <c r="Q9" s="35"/>
+      <c r="R9" s="35"/>
+      <c r="S9" s="35"/>
+      <c r="T9" s="35"/>
+      <c r="U9" s="35"/>
+      <c r="V9" s="35"/>
+      <c r="W9" s="35"/>
+      <c r="X9" s="35"/>
+      <c r="Y9" s="39"/>
+      <c r="Z9" s="35"/>
+      <c r="AA9" s="35"/>
+      <c r="AB9" s="35"/>
+      <c r="AC9" s="35"/>
+      <c r="AD9" s="35"/>
+      <c r="AE9" s="35"/>
+      <c r="AF9" s="35"/>
+      <c r="AG9" s="35"/>
+    </row>
+    <row r="10" spans="1:177" ht="12.75" customHeight="1" thickBot="1">
+      <c r="A10" s="35"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="35"/>
+      <c r="P10" s="35"/>
+      <c r="Q10" s="35"/>
+      <c r="R10" s="35"/>
+      <c r="S10" s="35"/>
+      <c r="T10" s="35"/>
+      <c r="U10" s="35"/>
+      <c r="V10" s="35"/>
+      <c r="W10" s="35"/>
+      <c r="X10" s="35"/>
+      <c r="Y10" s="39"/>
+      <c r="Z10" s="35"/>
+      <c r="AA10" s="35"/>
+      <c r="AB10" s="35"/>
+      <c r="AC10" s="35"/>
+      <c r="AD10" s="35"/>
+      <c r="AE10" s="35"/>
+      <c r="AF10" s="35"/>
+      <c r="AG10" s="35"/>
+    </row>
+    <row r="11" spans="1:177" ht="12.75" customHeight="1" thickBot="1">
+      <c r="A11" s="35"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="47"/>
+      <c r="M11" s="48"/>
+      <c r="N11" s="48"/>
+      <c r="O11" s="48"/>
+      <c r="P11" s="49"/>
+      <c r="Q11" s="35"/>
+      <c r="R11" s="35"/>
+      <c r="S11" s="35"/>
+      <c r="T11" s="35"/>
+      <c r="U11" s="35"/>
+      <c r="V11" s="35"/>
+      <c r="W11" s="35"/>
+      <c r="X11" s="35"/>
+      <c r="Y11" s="39"/>
+      <c r="Z11" s="35"/>
+      <c r="AA11" s="35"/>
+      <c r="AB11" s="35"/>
+      <c r="AC11" s="35"/>
+      <c r="AD11" s="35"/>
+      <c r="AE11" s="35"/>
+      <c r="AF11" s="35"/>
+      <c r="AG11" s="35"/>
+    </row>
+    <row r="12" spans="1:177" ht="12.75" customHeight="1" thickBot="1">
+      <c r="A12" s="35"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="37"/>
+      <c r="Q12" s="35"/>
+      <c r="R12" s="35"/>
+      <c r="S12" s="35"/>
+      <c r="T12" s="35"/>
+      <c r="U12" s="35"/>
+      <c r="V12" s="35"/>
+      <c r="W12" s="35"/>
+      <c r="X12" s="35"/>
+      <c r="Y12" s="39"/>
+      <c r="Z12" s="35"/>
+      <c r="AA12" s="35"/>
+      <c r="AB12" s="35"/>
+      <c r="AC12" s="35"/>
+      <c r="AD12" s="35"/>
+      <c r="AE12" s="35"/>
+      <c r="AF12" s="35"/>
+      <c r="AG12" s="35"/>
+    </row>
+    <row r="13" spans="1:177" ht="12.75" customHeight="1" thickBot="1">
+      <c r="A13" s="35"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="47"/>
+      <c r="M13" s="48"/>
+      <c r="N13" s="48"/>
+      <c r="O13" s="48"/>
+      <c r="P13" s="49"/>
+      <c r="Q13" s="35"/>
+      <c r="R13" s="35"/>
+      <c r="S13" s="35"/>
+      <c r="T13" s="35"/>
+      <c r="U13" s="35"/>
+      <c r="V13" s="35"/>
+      <c r="W13" s="35"/>
+      <c r="X13" s="35"/>
+      <c r="Y13" s="39"/>
+      <c r="Z13" s="35"/>
+      <c r="AA13" s="35"/>
+      <c r="AB13" s="35"/>
+      <c r="AC13" s="35"/>
+      <c r="AD13" s="35"/>
+      <c r="AE13" s="35"/>
+      <c r="AF13" s="35"/>
+      <c r="AG13" s="35"/>
+    </row>
+    <row r="14" spans="1:177" ht="12.75" customHeight="1">
+      <c r="A14" s="35"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="35"/>
+      <c r="O14" s="35"/>
+      <c r="P14" s="35"/>
+      <c r="Q14" s="35"/>
+      <c r="R14" s="35"/>
+      <c r="S14" s="35"/>
+      <c r="T14" s="35"/>
+      <c r="U14" s="35"/>
+      <c r="V14" s="35"/>
+      <c r="W14" s="35"/>
+      <c r="X14" s="35"/>
+      <c r="Y14" s="39"/>
+      <c r="Z14" s="35"/>
+      <c r="AA14" s="35"/>
+      <c r="AB14" s="35"/>
+      <c r="AC14" s="35"/>
+      <c r="AD14" s="35"/>
+      <c r="AE14" s="35"/>
+      <c r="AF14" s="35"/>
+      <c r="AG14" s="35"/>
+    </row>
+    <row r="15" spans="1:177" ht="12.75" customHeight="1">
+      <c r="A15" s="35"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="100" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" s="101"/>
+      <c r="J15" s="102"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="35"/>
+      <c r="O15" s="35"/>
+      <c r="P15" s="35"/>
+      <c r="Q15" s="35"/>
+      <c r="R15" s="35"/>
+      <c r="S15" s="35"/>
+      <c r="T15" s="35"/>
+      <c r="U15" s="35"/>
+      <c r="V15" s="35"/>
+      <c r="W15" s="35"/>
+      <c r="X15" s="35"/>
+      <c r="Y15" s="39"/>
+      <c r="Z15" s="35"/>
+      <c r="AA15" s="35"/>
+      <c r="AB15" s="35"/>
+      <c r="AC15" s="35"/>
+      <c r="AD15" s="35"/>
+      <c r="AE15" s="35"/>
+      <c r="AF15" s="35"/>
+      <c r="AG15" s="35"/>
+    </row>
+    <row r="16" spans="1:177" ht="12.75" customHeight="1">
+      <c r="A16" s="35"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="103"/>
+      <c r="I16" s="104"/>
+      <c r="J16" s="105"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="35"/>
+      <c r="P16" s="35"/>
+      <c r="Q16" s="35"/>
+      <c r="R16" s="35"/>
+      <c r="S16" s="35"/>
+      <c r="T16" s="35"/>
+      <c r="U16" s="35"/>
+      <c r="V16" s="35"/>
+      <c r="W16" s="35"/>
+      <c r="X16" s="35"/>
+      <c r="Y16" s="39"/>
+      <c r="Z16" s="35"/>
+      <c r="AA16" s="35"/>
+      <c r="AB16" s="35"/>
+      <c r="AC16" s="35"/>
+      <c r="AD16" s="35"/>
+      <c r="AE16" s="35"/>
+      <c r="AF16" s="35"/>
+      <c r="AG16" s="35"/>
+    </row>
+    <row r="17" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A17" s="35"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="35"/>
+      <c r="O17" s="35"/>
+      <c r="P17" s="35"/>
+      <c r="Q17" s="35"/>
+      <c r="R17" s="35"/>
+      <c r="S17" s="35"/>
+      <c r="T17" s="35"/>
+      <c r="U17" s="35"/>
+      <c r="V17" s="35"/>
+      <c r="W17" s="35"/>
+      <c r="X17" s="35"/>
+      <c r="Y17" s="39"/>
+      <c r="Z17" s="35"/>
+      <c r="AA17" s="35"/>
+      <c r="AB17" s="35"/>
+      <c r="AC17" s="35"/>
+      <c r="AD17" s="35"/>
+      <c r="AE17" s="35"/>
+      <c r="AF17" s="35"/>
+      <c r="AG17" s="35"/>
+    </row>
+    <row r="18" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A18" s="35"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="35"/>
+      <c r="O18" s="35"/>
+      <c r="P18" s="35"/>
+      <c r="Q18" s="35"/>
+      <c r="R18" s="35"/>
+      <c r="S18" s="35"/>
+      <c r="T18" s="35"/>
+      <c r="U18" s="35"/>
+      <c r="V18" s="35"/>
+      <c r="W18" s="35"/>
+      <c r="X18" s="35"/>
+      <c r="Y18" s="39"/>
+      <c r="Z18" s="35"/>
+      <c r="AA18" s="35"/>
+      <c r="AB18" s="35"/>
+      <c r="AC18" s="35"/>
+      <c r="AD18" s="35"/>
+      <c r="AE18" s="35"/>
+      <c r="AF18" s="35"/>
+      <c r="AG18" s="35"/>
+    </row>
+    <row r="19" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A19" s="35"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="35"/>
+      <c r="N19" s="35"/>
+      <c r="O19" s="35"/>
+      <c r="P19" s="35"/>
+      <c r="Q19" s="35"/>
+      <c r="R19" s="35"/>
+      <c r="S19" s="35"/>
+      <c r="T19" s="35"/>
+      <c r="U19" s="35"/>
+      <c r="V19" s="35"/>
+      <c r="W19" s="35"/>
+      <c r="X19" s="35"/>
+      <c r="Y19" s="39"/>
+      <c r="Z19" s="35"/>
+      <c r="AA19" s="35"/>
+      <c r="AB19" s="35"/>
+      <c r="AC19" s="35"/>
+      <c r="AD19" s="35"/>
+      <c r="AE19" s="35"/>
+      <c r="AF19" s="35"/>
+      <c r="AG19" s="35"/>
+    </row>
+    <row r="20" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A20" s="35"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="35"/>
+      <c r="M20" s="35"/>
+      <c r="N20" s="35"/>
+      <c r="O20" s="35"/>
+      <c r="P20" s="35"/>
+      <c r="Q20" s="35"/>
+      <c r="R20" s="35"/>
+      <c r="S20" s="35"/>
+      <c r="T20" s="35"/>
+      <c r="U20" s="35"/>
+      <c r="V20" s="35"/>
+      <c r="W20" s="35"/>
+      <c r="X20" s="35"/>
+      <c r="Y20" s="39"/>
+      <c r="Z20" s="35"/>
+      <c r="AA20" s="35"/>
+      <c r="AB20" s="35"/>
+      <c r="AC20" s="35"/>
+      <c r="AD20" s="35"/>
+      <c r="AE20" s="35"/>
+      <c r="AF20" s="35"/>
+      <c r="AG20" s="35"/>
+    </row>
+    <row r="21" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A21" s="35"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="35"/>
+      <c r="M21" s="35"/>
+      <c r="N21" s="35"/>
+      <c r="O21" s="35"/>
+      <c r="P21" s="35"/>
+      <c r="Q21" s="35"/>
+      <c r="R21" s="35"/>
+      <c r="S21" s="35"/>
+      <c r="T21" s="35"/>
+      <c r="U21" s="35"/>
+      <c r="V21" s="35"/>
+      <c r="W21" s="35"/>
+      <c r="X21" s="35"/>
+      <c r="Y21" s="39"/>
+      <c r="Z21" s="35"/>
+      <c r="AA21" s="35"/>
+      <c r="AB21" s="35"/>
+      <c r="AC21" s="35"/>
+      <c r="AD21" s="35"/>
+      <c r="AE21" s="35"/>
+      <c r="AF21" s="35"/>
+      <c r="AG21" s="35"/>
+    </row>
+    <row r="22" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A22" s="35"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="35"/>
+      <c r="N22" s="35"/>
+      <c r="O22" s="35"/>
+      <c r="P22" s="35"/>
+      <c r="Q22" s="35"/>
+      <c r="R22" s="35"/>
+      <c r="S22" s="35"/>
+      <c r="T22" s="35"/>
+      <c r="U22" s="35"/>
+      <c r="V22" s="35"/>
+      <c r="W22" s="35"/>
+      <c r="X22" s="35"/>
+      <c r="Y22" s="39"/>
+      <c r="Z22" s="35"/>
+      <c r="AA22" s="35"/>
+      <c r="AB22" s="35"/>
+      <c r="AC22" s="35"/>
+      <c r="AD22" s="35"/>
+      <c r="AE22" s="35"/>
+      <c r="AF22" s="35"/>
+      <c r="AG22" s="35"/>
+    </row>
+    <row r="23" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A23" s="35"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="35"/>
+      <c r="N23" s="35"/>
+      <c r="O23" s="35"/>
+      <c r="P23" s="35"/>
+      <c r="Q23" s="35"/>
+      <c r="R23" s="35"/>
+      <c r="S23" s="35"/>
+      <c r="T23" s="35"/>
+      <c r="U23" s="35"/>
+      <c r="V23" s="35"/>
+      <c r="W23" s="35"/>
+      <c r="X23" s="35"/>
+      <c r="Y23" s="39"/>
+      <c r="Z23" s="35"/>
+      <c r="AA23" s="35"/>
+      <c r="AB23" s="35"/>
+      <c r="AC23" s="35"/>
+      <c r="AD23" s="35"/>
+      <c r="AE23" s="35"/>
+      <c r="AF23" s="35"/>
+      <c r="AG23" s="35"/>
+    </row>
+    <row r="24" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A24" s="35"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="35"/>
+      <c r="M24" s="35"/>
+      <c r="N24" s="35"/>
+      <c r="O24" s="35"/>
+      <c r="P24" s="35"/>
+      <c r="Q24" s="35"/>
+      <c r="R24" s="35"/>
+      <c r="S24" s="35"/>
+      <c r="T24" s="35"/>
+      <c r="U24" s="35"/>
+      <c r="V24" s="35"/>
+      <c r="W24" s="35"/>
+      <c r="X24" s="35"/>
+      <c r="Y24" s="39"/>
+      <c r="Z24" s="35"/>
+      <c r="AA24" s="35"/>
+      <c r="AB24" s="35"/>
+      <c r="AC24" s="35"/>
+      <c r="AD24" s="35"/>
+      <c r="AE24" s="35"/>
+      <c r="AF24" s="35"/>
+      <c r="AG24" s="35"/>
+    </row>
+    <row r="25" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A25" s="35"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="35"/>
+      <c r="M25" s="35"/>
+      <c r="N25" s="35"/>
+      <c r="O25" s="35"/>
+      <c r="P25" s="35"/>
+      <c r="Q25" s="35"/>
+      <c r="R25" s="35"/>
+      <c r="S25" s="35"/>
+      <c r="T25" s="35"/>
+      <c r="U25" s="35"/>
+      <c r="V25" s="35"/>
+      <c r="W25" s="35"/>
+      <c r="X25" s="35"/>
+      <c r="Y25" s="39"/>
+      <c r="Z25" s="35"/>
+      <c r="AA25" s="35"/>
+      <c r="AB25" s="35"/>
+      <c r="AC25" s="35"/>
+      <c r="AD25" s="35"/>
+      <c r="AE25" s="35"/>
+      <c r="AF25" s="35"/>
+      <c r="AG25" s="35"/>
+    </row>
+    <row r="26" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A26" s="35"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="35"/>
+      <c r="N26" s="35"/>
+      <c r="O26" s="35"/>
+      <c r="P26" s="35"/>
+      <c r="Q26" s="35"/>
+      <c r="R26" s="35"/>
+      <c r="S26" s="35"/>
+      <c r="T26" s="35"/>
+      <c r="U26" s="35"/>
+      <c r="V26" s="35"/>
+      <c r="W26" s="35"/>
+      <c r="X26" s="35"/>
+      <c r="Y26" s="39"/>
+      <c r="Z26" s="35"/>
+      <c r="AA26" s="35"/>
+      <c r="AB26" s="35"/>
+      <c r="AC26" s="35"/>
+      <c r="AD26" s="35"/>
+      <c r="AE26" s="35"/>
+      <c r="AF26" s="35"/>
+      <c r="AG26" s="35"/>
+    </row>
+    <row r="27" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A27" s="35"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="35"/>
+      <c r="M27" s="35"/>
+      <c r="N27" s="35"/>
+      <c r="O27" s="35"/>
+      <c r="P27" s="35"/>
+      <c r="Q27" s="35"/>
+      <c r="R27" s="35"/>
+      <c r="S27" s="35"/>
+      <c r="T27" s="35"/>
+      <c r="U27" s="35"/>
+      <c r="V27" s="35"/>
+      <c r="W27" s="35"/>
+      <c r="X27" s="35"/>
+      <c r="Y27" s="39"/>
+      <c r="Z27" s="35"/>
+      <c r="AA27" s="35"/>
+      <c r="AB27" s="35"/>
+      <c r="AC27" s="35"/>
+      <c r="AD27" s="35"/>
+      <c r="AE27" s="35"/>
+      <c r="AF27" s="35"/>
+      <c r="AG27" s="35"/>
+    </row>
+    <row r="28" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A28" s="35"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="35"/>
+      <c r="L28" s="35"/>
+      <c r="M28" s="35"/>
+      <c r="N28" s="35"/>
+      <c r="O28" s="35"/>
+      <c r="P28" s="35"/>
+      <c r="Q28" s="35"/>
+      <c r="R28" s="35"/>
+      <c r="S28" s="35"/>
+      <c r="T28" s="35"/>
+      <c r="U28" s="35"/>
+      <c r="V28" s="35"/>
+      <c r="W28" s="35"/>
+      <c r="X28" s="35"/>
+      <c r="Y28" s="39"/>
+      <c r="Z28" s="35"/>
+      <c r="AA28" s="35"/>
+      <c r="AB28" s="35"/>
+      <c r="AC28" s="35"/>
+      <c r="AD28" s="35"/>
+      <c r="AE28" s="35"/>
+      <c r="AF28" s="35"/>
+      <c r="AG28" s="35"/>
+    </row>
+    <row r="29" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A29" s="35"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="35"/>
+      <c r="K29" s="35"/>
+      <c r="L29" s="35"/>
+      <c r="M29" s="35"/>
+      <c r="N29" s="35"/>
+      <c r="O29" s="35"/>
+      <c r="P29" s="35"/>
+      <c r="Q29" s="35"/>
+      <c r="R29" s="35"/>
+      <c r="S29" s="35"/>
+      <c r="T29" s="35"/>
+      <c r="U29" s="35"/>
+      <c r="V29" s="35"/>
+      <c r="W29" s="35"/>
+      <c r="X29" s="35"/>
+      <c r="Y29" s="39"/>
+      <c r="Z29" s="35"/>
+      <c r="AA29" s="35"/>
+      <c r="AB29" s="35"/>
+      <c r="AC29" s="35"/>
+      <c r="AD29" s="35"/>
+      <c r="AE29" s="35"/>
+      <c r="AF29" s="35"/>
+      <c r="AG29" s="35"/>
+    </row>
+    <row r="30" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A30" s="35"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="35"/>
+      <c r="K30" s="35"/>
+      <c r="L30" s="35"/>
+      <c r="M30" s="35"/>
+      <c r="N30" s="35"/>
+      <c r="O30" s="35"/>
+      <c r="P30" s="35"/>
+      <c r="Q30" s="35"/>
+      <c r="R30" s="35"/>
+      <c r="S30" s="35"/>
+      <c r="T30" s="35"/>
+      <c r="U30" s="35"/>
+      <c r="V30" s="35"/>
+      <c r="W30" s="35"/>
+      <c r="X30" s="35"/>
+      <c r="Y30" s="39"/>
+      <c r="Z30" s="35"/>
+      <c r="AA30" s="35"/>
+      <c r="AB30" s="35"/>
+      <c r="AC30" s="35"/>
+      <c r="AD30" s="35"/>
+      <c r="AE30" s="35"/>
+      <c r="AF30" s="35"/>
+      <c r="AG30" s="35"/>
+    </row>
+    <row r="31" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A31" s="35"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="35"/>
+      <c r="J31" s="35"/>
+      <c r="K31" s="35"/>
+      <c r="L31" s="35"/>
+      <c r="M31" s="35"/>
+      <c r="N31" s="35"/>
+      <c r="O31" s="35"/>
+      <c r="P31" s="35"/>
+      <c r="Q31" s="35"/>
+      <c r="R31" s="35"/>
+      <c r="S31" s="35"/>
+      <c r="T31" s="35"/>
+      <c r="U31" s="35"/>
+      <c r="V31" s="35"/>
+      <c r="W31" s="35"/>
+      <c r="X31" s="35"/>
+      <c r="Y31" s="39"/>
+      <c r="Z31" s="35"/>
+      <c r="AA31" s="35"/>
+      <c r="AB31" s="35"/>
+      <c r="AC31" s="35"/>
+      <c r="AD31" s="35"/>
+      <c r="AE31" s="35"/>
+      <c r="AF31" s="35"/>
+      <c r="AG31" s="35"/>
+    </row>
+    <row r="32" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A32" s="35"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="35"/>
+      <c r="J32" s="35"/>
+      <c r="K32" s="35"/>
+      <c r="L32" s="35"/>
+      <c r="M32" s="35"/>
+      <c r="N32" s="35"/>
+      <c r="O32" s="35"/>
+      <c r="P32" s="35"/>
+      <c r="Q32" s="35"/>
+      <c r="R32" s="35"/>
+      <c r="S32" s="35"/>
+      <c r="T32" s="35"/>
+      <c r="U32" s="35"/>
+      <c r="V32" s="35"/>
+      <c r="W32" s="35"/>
+      <c r="X32" s="35"/>
+      <c r="Y32" s="39"/>
+      <c r="Z32" s="35"/>
+      <c r="AA32" s="35"/>
+      <c r="AB32" s="35"/>
+      <c r="AC32" s="35"/>
+      <c r="AD32" s="35"/>
+      <c r="AE32" s="35"/>
+      <c r="AF32" s="35"/>
+      <c r="AG32" s="35"/>
+    </row>
+    <row r="33" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A33" s="35"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="35"/>
+      <c r="I33" s="35"/>
+      <c r="J33" s="35"/>
+      <c r="K33" s="35"/>
+      <c r="L33" s="35"/>
+      <c r="M33" s="35"/>
+      <c r="N33" s="35"/>
+      <c r="O33" s="35"/>
+      <c r="P33" s="35"/>
+      <c r="Q33" s="35"/>
+      <c r="R33" s="35"/>
+      <c r="S33" s="35"/>
+      <c r="T33" s="35"/>
+      <c r="U33" s="35"/>
+      <c r="V33" s="35"/>
+      <c r="W33" s="35"/>
+      <c r="X33" s="35"/>
+      <c r="Y33" s="39"/>
+      <c r="Z33" s="35"/>
+      <c r="AA33" s="35"/>
+      <c r="AB33" s="35"/>
+      <c r="AC33" s="35"/>
+      <c r="AD33" s="35"/>
+      <c r="AE33" s="35"/>
+      <c r="AF33" s="35"/>
+      <c r="AG33" s="35"/>
+    </row>
+    <row r="34" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A34" s="35"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="35"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="35"/>
+      <c r="I34" s="35"/>
+      <c r="J34" s="35"/>
+      <c r="K34" s="35"/>
+      <c r="L34" s="35"/>
+      <c r="M34" s="35"/>
+      <c r="N34" s="35"/>
+      <c r="O34" s="35"/>
+      <c r="P34" s="35"/>
+      <c r="Q34" s="35"/>
+      <c r="R34" s="35"/>
+      <c r="S34" s="35"/>
+      <c r="T34" s="35"/>
+      <c r="U34" s="35"/>
+      <c r="V34" s="35"/>
+      <c r="W34" s="35"/>
+      <c r="X34" s="35"/>
+      <c r="Y34" s="39"/>
+      <c r="Z34" s="35"/>
+      <c r="AA34" s="35"/>
+      <c r="AB34" s="35"/>
+      <c r="AC34" s="35"/>
+      <c r="AD34" s="35"/>
+      <c r="AE34" s="35"/>
+      <c r="AF34" s="35"/>
+      <c r="AG34" s="35"/>
+    </row>
+    <row r="35" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A35" s="35"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="35"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="35"/>
+      <c r="I35" s="35"/>
+      <c r="J35" s="35"/>
+      <c r="K35" s="35"/>
+      <c r="L35" s="35"/>
+      <c r="M35" s="35"/>
+      <c r="N35" s="35"/>
+      <c r="O35" s="35"/>
+      <c r="P35" s="35"/>
+      <c r="Q35" s="35"/>
+      <c r="R35" s="35"/>
+      <c r="S35" s="35"/>
+      <c r="T35" s="35"/>
+      <c r="U35" s="35"/>
+      <c r="V35" s="35"/>
+      <c r="W35" s="35"/>
+      <c r="X35" s="35"/>
+      <c r="Y35" s="39"/>
+      <c r="Z35" s="35"/>
+      <c r="AA35" s="35"/>
+      <c r="AB35" s="35"/>
+      <c r="AC35" s="35"/>
+      <c r="AD35" s="35"/>
+      <c r="AE35" s="35"/>
+      <c r="AF35" s="35"/>
+      <c r="AG35" s="35"/>
+    </row>
+    <row r="36" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A36" s="35"/>
+      <c r="B36" s="35"/>
+      <c r="C36" s="35"/>
+      <c r="D36" s="35"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="35"/>
+      <c r="I36" s="35"/>
+      <c r="J36" s="35"/>
+      <c r="K36" s="35"/>
+      <c r="L36" s="35"/>
+      <c r="M36" s="35"/>
+      <c r="N36" s="35"/>
+      <c r="O36" s="35"/>
+      <c r="P36" s="35"/>
+      <c r="Q36" s="35"/>
+      <c r="R36" s="35"/>
+      <c r="S36" s="35"/>
+      <c r="T36" s="35"/>
+      <c r="U36" s="35"/>
+      <c r="V36" s="35"/>
+      <c r="W36" s="35"/>
+      <c r="X36" s="35"/>
+      <c r="Y36" s="39"/>
+      <c r="Z36" s="35"/>
+      <c r="AA36" s="35"/>
+      <c r="AB36" s="35"/>
+      <c r="AC36" s="35"/>
+      <c r="AD36" s="35"/>
+      <c r="AE36" s="35"/>
+      <c r="AF36" s="35"/>
+      <c r="AG36" s="35"/>
+    </row>
+    <row r="37" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A37" s="35"/>
+      <c r="B37" s="35"/>
+      <c r="C37" s="35"/>
+      <c r="D37" s="35"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="37"/>
+      <c r="H37" s="35"/>
+      <c r="I37" s="35"/>
+      <c r="J37" s="35"/>
+      <c r="K37" s="35"/>
+      <c r="L37" s="35"/>
+      <c r="M37" s="35"/>
+      <c r="N37" s="35"/>
+      <c r="O37" s="35"/>
+      <c r="P37" s="35"/>
+      <c r="Q37" s="35"/>
+      <c r="R37" s="35"/>
+      <c r="S37" s="35"/>
+      <c r="T37" s="35"/>
+      <c r="U37" s="35"/>
+      <c r="V37" s="35"/>
+      <c r="W37" s="35"/>
+      <c r="X37" s="35"/>
+      <c r="Y37" s="39"/>
+      <c r="Z37" s="35"/>
+      <c r="AA37" s="35"/>
+      <c r="AB37" s="35"/>
+      <c r="AC37" s="35"/>
+      <c r="AD37" s="35"/>
+      <c r="AE37" s="35"/>
+      <c r="AF37" s="35"/>
+      <c r="AG37" s="35"/>
+    </row>
+    <row r="38" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A38" s="35"/>
+      <c r="B38" s="35"/>
+      <c r="C38" s="35"/>
+      <c r="D38" s="35"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="35"/>
+      <c r="G38" s="41"/>
+      <c r="H38" s="42"/>
+      <c r="I38" s="42"/>
+      <c r="J38" s="42"/>
+      <c r="K38" s="42"/>
+      <c r="L38" s="42"/>
+      <c r="M38" s="42"/>
+      <c r="N38" s="42"/>
+      <c r="O38" s="42"/>
+      <c r="P38" s="42"/>
+      <c r="Q38" s="42"/>
+      <c r="R38" s="42"/>
+      <c r="S38" s="42"/>
+      <c r="T38" s="42"/>
+      <c r="U38" s="42"/>
+      <c r="V38" s="42"/>
+      <c r="W38" s="42"/>
+      <c r="X38" s="42"/>
+      <c r="Y38" s="43"/>
+      <c r="Z38" s="35"/>
+      <c r="AA38" s="35"/>
+      <c r="AB38" s="35"/>
+      <c r="AC38" s="35"/>
+      <c r="AD38" s="35"/>
+      <c r="AE38" s="35"/>
+      <c r="AF38" s="35"/>
+      <c r="AG38" s="35"/>
+    </row>
+    <row r="39" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A39" s="35"/>
+      <c r="B39" s="35"/>
+      <c r="C39" s="35"/>
+      <c r="D39" s="35"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="35"/>
+      <c r="G39" s="100" t="s">
+        <v>25</v>
+      </c>
+      <c r="H39" s="101"/>
+      <c r="I39" s="101"/>
+      <c r="J39" s="101"/>
+      <c r="K39" s="101"/>
+      <c r="L39" s="101"/>
+      <c r="M39" s="101"/>
+      <c r="N39" s="101"/>
+      <c r="O39" s="101"/>
+      <c r="P39" s="101"/>
+      <c r="Q39" s="101"/>
+      <c r="R39" s="101"/>
+      <c r="S39" s="101"/>
+      <c r="T39" s="101"/>
+      <c r="U39" s="101"/>
+      <c r="V39" s="101"/>
+      <c r="W39" s="101"/>
+      <c r="X39" s="101"/>
+      <c r="Y39" s="102"/>
+      <c r="Z39" s="35"/>
+      <c r="AA39" s="35"/>
+      <c r="AB39" s="35"/>
+      <c r="AC39" s="35"/>
+      <c r="AD39" s="35"/>
+      <c r="AE39" s="35"/>
+      <c r="AF39" s="35"/>
+      <c r="AG39" s="35"/>
+    </row>
+    <row r="40" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A40" s="35"/>
+      <c r="B40" s="35"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="103"/>
+      <c r="H40" s="104"/>
+      <c r="I40" s="104"/>
+      <c r="J40" s="104"/>
+      <c r="K40" s="104"/>
+      <c r="L40" s="104"/>
+      <c r="M40" s="104"/>
+      <c r="N40" s="104"/>
+      <c r="O40" s="104"/>
+      <c r="P40" s="104"/>
+      <c r="Q40" s="104"/>
+      <c r="R40" s="104"/>
+      <c r="S40" s="104"/>
+      <c r="T40" s="104"/>
+      <c r="U40" s="104"/>
+      <c r="V40" s="104"/>
+      <c r="W40" s="104"/>
+      <c r="X40" s="104"/>
+      <c r="Y40" s="105"/>
+      <c r="Z40" s="35"/>
+      <c r="AA40" s="35"/>
+      <c r="AB40" s="35"/>
+      <c r="AC40" s="35"/>
+      <c r="AD40" s="35"/>
+      <c r="AE40" s="35"/>
+      <c r="AF40" s="35"/>
+      <c r="AG40" s="35"/>
+    </row>
+    <row r="41" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A41" s="35"/>
+      <c r="B41" s="35"/>
+      <c r="C41" s="35"/>
+      <c r="D41" s="35"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="35"/>
+      <c r="G41" s="35"/>
+      <c r="H41" s="35"/>
+      <c r="I41" s="35"/>
+      <c r="J41" s="35"/>
+      <c r="K41" s="35"/>
+      <c r="L41" s="35"/>
+      <c r="M41" s="35"/>
+      <c r="N41" s="35"/>
+      <c r="O41" s="35"/>
+      <c r="P41" s="35"/>
+      <c r="Q41" s="35"/>
+      <c r="R41" s="35"/>
+      <c r="S41" s="35"/>
+      <c r="T41" s="35"/>
+      <c r="U41" s="35"/>
+      <c r="V41" s="35"/>
+      <c r="W41" s="35"/>
+      <c r="X41" s="35"/>
+      <c r="Y41" s="35"/>
+      <c r="Z41" s="35"/>
+      <c r="AA41" s="35"/>
+      <c r="AB41" s="35"/>
+      <c r="AC41" s="35"/>
+      <c r="AD41" s="35"/>
+      <c r="AE41" s="35"/>
+      <c r="AF41" s="35"/>
+      <c r="AG41" s="35"/>
+    </row>
+    <row r="42" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A42" s="42"/>
+      <c r="B42" s="42"/>
+      <c r="C42" s="42"/>
+      <c r="D42" s="42"/>
+      <c r="E42" s="42"/>
+      <c r="F42" s="42"/>
+      <c r="G42" s="42"/>
+      <c r="H42" s="42"/>
+      <c r="I42" s="42"/>
+      <c r="J42" s="42"/>
+      <c r="K42" s="42"/>
+      <c r="L42" s="42"/>
+      <c r="M42" s="42"/>
+      <c r="N42" s="42"/>
+      <c r="O42" s="42"/>
+      <c r="P42" s="42"/>
+      <c r="Q42" s="42"/>
+      <c r="R42" s="42"/>
+      <c r="S42" s="42"/>
+      <c r="T42" s="42"/>
+      <c r="U42" s="42"/>
+      <c r="V42" s="42"/>
+      <c r="W42" s="42"/>
+      <c r="X42" s="42"/>
+      <c r="Y42" s="42"/>
+      <c r="Z42" s="42"/>
+      <c r="AA42" s="42"/>
+      <c r="AB42" s="42"/>
+      <c r="AC42" s="42"/>
+      <c r="AD42" s="42"/>
+      <c r="AE42" s="42"/>
+      <c r="AF42" s="42"/>
+      <c r="AG42" s="42"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="G6:Y7"/>
+    <mergeCell ref="H15:J16"/>
+    <mergeCell ref="G39:Y40"/>
+    <mergeCell ref="A1:AG1"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:AC3"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:AC2"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="AF2:AG2"/>
+  </mergeCells>
+  <phoneticPr fontId="4"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddFooter>&amp;LCopyright© 2005 System Integrator Corp.&amp;C&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{534A76B3-0A29-4707-A5EA-800553836AB6}">
+  <dimension ref="A1:FU42"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39:Y40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="4" width="4.109375" style="40" customWidth="1"/>
+    <col min="5" max="6" width="4.109375" style="38" customWidth="1"/>
+    <col min="7" max="30" width="4.109375" style="40" customWidth="1"/>
+    <col min="31" max="33" width="4.109375" style="45" customWidth="1"/>
+    <col min="34" max="37" width="4" style="40" customWidth="1"/>
+    <col min="38" max="16384" width="9" style="40"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:177" ht="12.75" customHeight="1">
+      <c r="A1" s="106" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="106"/>
+      <c r="J1" s="106"/>
+      <c r="K1" s="106"/>
+      <c r="L1" s="106"/>
+      <c r="M1" s="106"/>
+      <c r="N1" s="106"/>
+      <c r="O1" s="106"/>
+      <c r="P1" s="106"/>
+      <c r="Q1" s="106"/>
+      <c r="R1" s="106"/>
+      <c r="S1" s="106"/>
+      <c r="T1" s="106"/>
+      <c r="U1" s="106"/>
+      <c r="V1" s="106"/>
+      <c r="W1" s="106"/>
+      <c r="X1" s="106"/>
+      <c r="Y1" s="106"/>
+      <c r="Z1" s="106"/>
+      <c r="AA1" s="106"/>
+      <c r="AB1" s="106"/>
+      <c r="AC1" s="106"/>
+      <c r="AD1" s="106"/>
+      <c r="AE1" s="106"/>
+      <c r="AF1" s="106"/>
+      <c r="AG1" s="106"/>
+    </row>
+    <row r="2" spans="1:177" ht="13.05" customHeight="1">
+      <c r="A2" s="107" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="107" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="108"/>
+      <c r="I2" s="108"/>
+      <c r="J2" s="108"/>
+      <c r="K2" s="108"/>
+      <c r="L2" s="108"/>
+      <c r="M2" s="108"/>
+      <c r="N2" s="108"/>
+      <c r="O2" s="108"/>
+      <c r="P2" s="108"/>
+      <c r="Q2" s="108"/>
+      <c r="R2" s="108"/>
+      <c r="S2" s="108"/>
+      <c r="T2" s="108"/>
+      <c r="U2" s="108"/>
+      <c r="V2" s="108"/>
+      <c r="W2" s="108"/>
+      <c r="X2" s="108"/>
+      <c r="Y2" s="108"/>
+      <c r="Z2" s="108"/>
+      <c r="AA2" s="108"/>
+      <c r="AB2" s="108"/>
+      <c r="AC2" s="109"/>
+      <c r="AD2" s="107" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE2" s="109"/>
+      <c r="AF2" s="107" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG2" s="109"/>
+    </row>
+    <row r="3" spans="1:177" s="16" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A3" s="107" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="108"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="107"/>
+      <c r="H3" s="108"/>
+      <c r="I3" s="108"/>
+      <c r="J3" s="108"/>
+      <c r="K3" s="108"/>
+      <c r="L3" s="108"/>
+      <c r="M3" s="108"/>
+      <c r="N3" s="108"/>
+      <c r="O3" s="108"/>
+      <c r="P3" s="108"/>
+      <c r="Q3" s="108"/>
+      <c r="R3" s="108"/>
+      <c r="S3" s="108"/>
+      <c r="T3" s="108"/>
+      <c r="U3" s="108"/>
+      <c r="V3" s="108"/>
+      <c r="W3" s="108"/>
+      <c r="X3" s="108"/>
+      <c r="Y3" s="108"/>
+      <c r="Z3" s="108"/>
+      <c r="AA3" s="108"/>
+      <c r="AB3" s="108"/>
+      <c r="AC3" s="109"/>
+      <c r="AD3" s="107"/>
+      <c r="AE3" s="109"/>
+      <c r="AF3" s="107" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG3" s="109"/>
+      <c r="AH3" s="14"/>
+      <c r="AI3" s="15"/>
+      <c r="AJ3" s="15"/>
+      <c r="AK3" s="15"/>
+      <c r="AL3" s="15"/>
+      <c r="AM3" s="15"/>
+      <c r="AN3" s="15"/>
+      <c r="AO3" s="15"/>
+      <c r="AP3" s="15"/>
+      <c r="AQ3" s="15"/>
+      <c r="AR3" s="15"/>
+      <c r="AS3" s="15"/>
+      <c r="AT3" s="15"/>
+      <c r="AU3" s="15"/>
+      <c r="AV3" s="15"/>
+      <c r="AW3" s="15"/>
+      <c r="AX3" s="15"/>
+      <c r="AY3" s="15"/>
+      <c r="AZ3" s="15"/>
+      <c r="BA3" s="15"/>
+      <c r="BB3" s="15"/>
+      <c r="BC3" s="15"/>
+      <c r="BD3" s="15"/>
+      <c r="BE3" s="15"/>
+      <c r="BF3" s="15"/>
+      <c r="BG3" s="15"/>
+      <c r="BH3" s="15"/>
+      <c r="BI3" s="15"/>
+      <c r="BJ3" s="15"/>
+      <c r="BK3" s="15"/>
+      <c r="BL3" s="15"/>
+      <c r="BM3" s="15"/>
+      <c r="BN3" s="15"/>
+      <c r="BO3" s="15"/>
+      <c r="BP3" s="15"/>
+      <c r="BQ3" s="15"/>
+      <c r="BR3" s="15"/>
+      <c r="BS3" s="15"/>
+      <c r="BT3" s="15"/>
+      <c r="BU3" s="15"/>
+      <c r="BV3" s="15"/>
+      <c r="BW3" s="15"/>
+      <c r="BX3" s="15"/>
+      <c r="BY3" s="15"/>
+      <c r="BZ3" s="15"/>
+      <c r="CA3" s="15"/>
+      <c r="CB3" s="15"/>
+      <c r="CC3" s="15"/>
+      <c r="CD3" s="15"/>
+      <c r="CE3" s="15"/>
+      <c r="CF3" s="15"/>
+      <c r="CG3" s="15"/>
+      <c r="CH3" s="15"/>
+      <c r="CI3" s="15"/>
+      <c r="CJ3" s="15"/>
+      <c r="CK3" s="15"/>
+      <c r="CL3" s="15"/>
+      <c r="CM3" s="15"/>
+      <c r="CN3" s="15"/>
+      <c r="CO3" s="15"/>
+      <c r="CP3" s="15"/>
+      <c r="CQ3" s="15"/>
+      <c r="CR3" s="15"/>
+      <c r="CS3" s="15"/>
+      <c r="CT3" s="15"/>
+      <c r="CU3" s="15"/>
+      <c r="CV3" s="15"/>
+      <c r="CW3" s="15"/>
+      <c r="CX3" s="15"/>
+      <c r="CY3" s="15"/>
+      <c r="CZ3" s="15"/>
+      <c r="DA3" s="15"/>
+      <c r="DB3" s="15"/>
+      <c r="DC3" s="15"/>
+      <c r="DD3" s="15"/>
+      <c r="DE3" s="15"/>
+      <c r="DF3" s="15"/>
+      <c r="DG3" s="15"/>
+      <c r="DH3" s="15"/>
+      <c r="DI3" s="15"/>
+      <c r="DJ3" s="15"/>
+      <c r="DK3" s="15"/>
+      <c r="DL3" s="15"/>
+      <c r="DM3" s="15"/>
+      <c r="DN3" s="15"/>
+      <c r="DO3" s="15"/>
+      <c r="DP3" s="15"/>
+      <c r="DQ3" s="15"/>
+      <c r="DR3" s="15"/>
+      <c r="DS3" s="15"/>
+      <c r="DT3" s="15"/>
+      <c r="DU3" s="15"/>
+      <c r="DV3" s="15"/>
+      <c r="DW3" s="15"/>
+      <c r="DX3" s="15"/>
+      <c r="DY3" s="15"/>
+      <c r="DZ3" s="15"/>
+      <c r="EA3" s="15"/>
+      <c r="EB3" s="15"/>
+      <c r="EC3" s="15"/>
+      <c r="ED3" s="15"/>
+      <c r="EE3" s="15"/>
+      <c r="EF3" s="15"/>
+      <c r="EG3" s="15"/>
+      <c r="EH3" s="15"/>
+      <c r="EI3" s="15"/>
+      <c r="EJ3" s="15"/>
+      <c r="EK3" s="15"/>
+      <c r="EL3" s="15"/>
+      <c r="EM3" s="15"/>
+      <c r="EN3" s="15"/>
+      <c r="EO3" s="15"/>
+      <c r="EP3" s="15"/>
+      <c r="EQ3" s="15"/>
+      <c r="ER3" s="15"/>
+      <c r="ES3" s="15"/>
+      <c r="ET3" s="15"/>
+      <c r="EU3" s="15"/>
+      <c r="EV3" s="15"/>
+      <c r="EW3" s="15"/>
+      <c r="EX3" s="15"/>
+      <c r="EY3" s="15"/>
+      <c r="EZ3" s="15"/>
+      <c r="FA3" s="15"/>
+      <c r="FB3" s="15"/>
+      <c r="FC3" s="15"/>
+      <c r="FD3" s="15"/>
+      <c r="FE3" s="15"/>
+      <c r="FF3" s="15"/>
+      <c r="FG3" s="15"/>
+      <c r="FH3" s="15"/>
+      <c r="FI3" s="15"/>
+      <c r="FJ3" s="15"/>
+      <c r="FK3" s="15"/>
+      <c r="FL3" s="15"/>
+      <c r="FM3" s="15"/>
+      <c r="FN3" s="15"/>
+      <c r="FO3" s="15"/>
+      <c r="FP3" s="15"/>
+      <c r="FQ3" s="15"/>
+      <c r="FR3" s="15"/>
+      <c r="FS3" s="15"/>
+      <c r="FT3" s="15"/>
+      <c r="FU3" s="15"/>
+    </row>
+    <row r="4" spans="1:177" ht="12.75" customHeight="1">
+      <c r="A4" s="34"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="34"/>
+      <c r="R4" s="34"/>
+      <c r="S4" s="34"/>
+      <c r="T4" s="34"/>
+      <c r="U4" s="34"/>
+      <c r="V4" s="34"/>
+      <c r="W4" s="34"/>
+      <c r="X4" s="34"/>
+      <c r="Y4" s="34"/>
+      <c r="Z4" s="34"/>
+      <c r="AA4" s="34"/>
+      <c r="AB4" s="34"/>
+      <c r="AC4" s="34"/>
+      <c r="AD4" s="34"/>
+      <c r="AE4" s="34"/>
+      <c r="AF4" s="34"/>
+      <c r="AG4" s="34"/>
+    </row>
+    <row r="5" spans="1:177" ht="12.75" customHeight="1">
+      <c r="A5" s="35"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="35"/>
+      <c r="P5" s="35"/>
+      <c r="Q5" s="35"/>
+      <c r="R5" s="35"/>
+      <c r="S5" s="35"/>
+      <c r="T5" s="35"/>
+      <c r="U5" s="35"/>
+      <c r="V5" s="35"/>
+      <c r="W5" s="35"/>
+      <c r="X5" s="35"/>
+      <c r="Y5" s="35"/>
+      <c r="Z5" s="35"/>
+      <c r="AA5" s="35"/>
+      <c r="AB5" s="35"/>
+      <c r="AC5" s="35"/>
+      <c r="AD5" s="35"/>
+      <c r="AE5" s="35"/>
+      <c r="AF5" s="35"/>
+      <c r="AG5" s="35"/>
+    </row>
+    <row r="6" spans="1:177" ht="12.75" customHeight="1">
+      <c r="A6" s="35"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
       <c r="G6" s="100" t="s">
         <v>24</v>
       </c>
